--- a/Code/Results/Cases/Case_2_37/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_37/res_line/loading_percent.xlsx
@@ -412,28 +412,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.60990645605186</v>
+        <v>21.60990645605184</v>
       </c>
       <c r="C2">
-        <v>15.235188507174</v>
+        <v>15.23518850717386</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>7.321829334801929</v>
+        <v>7.321829334801937</v>
       </c>
       <c r="F2">
-        <v>34.73333376686709</v>
+        <v>34.73333376686703</v>
       </c>
       <c r="G2">
-        <v>28.31140643169353</v>
+        <v>28.31140643169348</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>10.12537803912824</v>
+        <v>10.12537803912826</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>16.99239687727323</v>
+        <v>16.99239687727319</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,28 +450,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.07527455450561</v>
+        <v>20.07527455450555</v>
       </c>
       <c r="C3">
-        <v>14.20959459459219</v>
+        <v>14.20959459459217</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>6.837741641294241</v>
+        <v>6.837741641294272</v>
       </c>
       <c r="F3">
-        <v>32.49165688923139</v>
+        <v>32.49165688923141</v>
       </c>
       <c r="G3">
-        <v>26.92969029864403</v>
+        <v>26.92969029864418</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>10.11693283384223</v>
+        <v>10.11693283384234</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>15.89040240140497</v>
+        <v>15.89040240140494</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,28 +488,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.08568840259768</v>
+        <v>19.08568840259763</v>
       </c>
       <c r="C4">
-        <v>13.54977959838952</v>
+        <v>13.54977959838951</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>6.546152048843129</v>
+        <v>6.546152048843094</v>
       </c>
       <c r="F4">
         <v>31.07222546640399</v>
       </c>
       <c r="G4">
-        <v>26.08272152143854</v>
+        <v>26.08272152143863</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>10.12095718863151</v>
+        <v>10.12095718863159</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -526,28 +526,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.67030295913235</v>
+        <v>18.67030295913229</v>
       </c>
       <c r="C5">
-        <v>13.27320345301919</v>
+        <v>13.2732034530194</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6.437489939615077</v>
+        <v>6.437489939615045</v>
       </c>
       <c r="F5">
-        <v>30.48322037583424</v>
+        <v>30.48322037583425</v>
       </c>
       <c r="G5">
-        <v>25.73815294316655</v>
+        <v>25.73815294316661</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>10.12473056339073</v>
+        <v>10.12473056339081</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>14.88383988865056</v>
+        <v>14.88383988865061</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,25 +567,25 @@
         <v>18.60059019623069</v>
       </c>
       <c r="C6">
-        <v>13.22680997497875</v>
+        <v>13.22680997497879</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6.419329853259166</v>
+        <v>6.419329853259108</v>
       </c>
       <c r="F6">
-        <v>30.38478762489838</v>
+        <v>30.3847876248984</v>
       </c>
       <c r="G6">
-        <v>25.68098038247388</v>
+        <v>25.68098038247398</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>10.12548089458899</v>
+        <v>10.12548089458914</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>14.83396750967913</v>
+        <v>14.83396750967916</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -605,13 +605,13 @@
         <v>19.08013573155469</v>
       </c>
       <c r="C7">
-        <v>13.54608091346051</v>
+        <v>13.54608091346045</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>6.54469450231759</v>
+        <v>6.544694502317594</v>
       </c>
       <c r="F7">
         <v>31.06432433367583</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>15.17718063154729</v>
+        <v>15.17718063154731</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,28 +640,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.09044660445889</v>
+        <v>21.09044660445892</v>
       </c>
       <c r="C8">
-        <v>14.88772702125211</v>
+        <v>14.8877270212518</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>7.158199063071423</v>
+        <v>7.1581990630714</v>
       </c>
       <c r="F8">
-        <v>33.96944135981877</v>
+        <v>33.96944135981878</v>
       </c>
       <c r="G8">
-        <v>27.83480891430037</v>
+        <v>27.83480891430041</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>10.12044069782608</v>
+        <v>10.12044069782617</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -678,28 +678,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.66818877704017</v>
+        <v>24.66818877704012</v>
       </c>
       <c r="C9">
-        <v>17.2867228474561</v>
+        <v>17.28672284745613</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>8.279521084485992</v>
+        <v>8.27952108448606</v>
       </c>
       <c r="F9">
-        <v>39.47476441005073</v>
+        <v>39.47476441005065</v>
       </c>
       <c r="G9">
-        <v>31.28540817198815</v>
+        <v>31.28540817198805</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>10.20135931882411</v>
+        <v>10.20135931882415</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>19.19332307992469</v>
+        <v>19.19332307992468</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,28 +716,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.09145409993907</v>
+        <v>27.09145409993892</v>
       </c>
       <c r="C10">
-        <v>18.91902465688235</v>
+        <v>18.91902465688237</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>9.03002805569316</v>
+        <v>9.030028055693233</v>
       </c>
       <c r="F10">
-        <v>43.40669333516263</v>
+        <v>43.40669333516247</v>
       </c>
       <c r="G10">
-        <v>33.82362901507741</v>
+        <v>33.82362901507729</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>10.32444273818554</v>
+        <v>10.32444273818548</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>20.93916538939715</v>
+        <v>20.93916538939714</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,28 +754,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.1535848580038</v>
+        <v>28.15358485800383</v>
       </c>
       <c r="C11">
-        <v>19.63632272789543</v>
+        <v>19.63632272789548</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>9.356200638126351</v>
+        <v>9.35620063812642</v>
       </c>
       <c r="F11">
-        <v>45.14247393485284</v>
+        <v>45.14247393485282</v>
       </c>
       <c r="G11">
-        <v>34.98112245279042</v>
+        <v>34.9811224527903</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>10.3976688249979</v>
+        <v>10.39766882499782</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>21.70434371326067</v>
+        <v>21.70434371326071</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,28 +792,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.55041453176119</v>
+        <v>28.55041453176121</v>
       </c>
       <c r="C12">
-        <v>19.90461099603631</v>
+        <v>19.90461099603615</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>9.477584377881968</v>
+        <v>9.477584377881875</v>
       </c>
       <c r="F12">
-        <v>45.79271219829569</v>
+        <v>45.79271219829565</v>
       </c>
       <c r="G12">
-        <v>35.42017935671335</v>
+        <v>35.42017935671332</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>10.42819878987733</v>
+        <v>10.42819878987731</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>21.99017516314545</v>
+        <v>21.99017516314538</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,28 +830,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.46518216247545</v>
+        <v>28.46518216247558</v>
       </c>
       <c r="C13">
-        <v>19.84697356583904</v>
+        <v>19.84697356583911</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>9.451535957164811</v>
+        <v>9.451535957164655</v>
       </c>
       <c r="F13">
-        <v>45.65297616920548</v>
+        <v>45.65297616920549</v>
       </c>
       <c r="G13">
-        <v>35.3255809741267</v>
+        <v>35.32558097412669</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>10.42149350905505</v>
+        <v>10.42149350905503</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>21.92878645371489</v>
+        <v>21.92878645371493</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,28 +868,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.18633748240699</v>
+        <v>28.18633748240696</v>
       </c>
       <c r="C14">
-        <v>19.65845999964536</v>
+        <v>19.65845999964552</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>9.366229287496571</v>
+        <v>9.366229287496546</v>
       </c>
       <c r="F14">
-        <v>45.19610752464249</v>
+        <v>45.19610752464245</v>
       </c>
       <c r="G14">
-        <v>35.01722672790948</v>
+        <v>35.01722672790943</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>10.40012242984919</v>
+        <v>10.40012242984917</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>21.72793634577227</v>
+        <v>21.72793634577225</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,28 +906,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.01484999250992</v>
+        <v>28.01484999250995</v>
       </c>
       <c r="C15">
-        <v>19.54256490737416</v>
+        <v>19.54256490737421</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>9.313700897475206</v>
+        <v>9.313700897475229</v>
       </c>
       <c r="F15">
-        <v>44.91536019443691</v>
+        <v>44.91536019443708</v>
       </c>
       <c r="G15">
-        <v>34.82845927605023</v>
+        <v>34.8284592760504</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>10.38740698482473</v>
+        <v>10.3874069848248</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>21.60440670746235</v>
+        <v>21.60440670746233</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,7 +944,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.02126557600095</v>
+        <v>27.02126557600085</v>
       </c>
       <c r="C16">
         <v>18.8716636094241</v>
@@ -953,19 +953,19 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>9.008410324482877</v>
+        <v>9.008410324482819</v>
       </c>
       <c r="F16">
-        <v>43.29223564992094</v>
+        <v>43.29223564992085</v>
       </c>
       <c r="G16">
-        <v>33.7480664734823</v>
+        <v>33.74806647348231</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>10.32003079042935</v>
+        <v>10.32003079042947</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>20.88859561670974</v>
+        <v>20.88859561670962</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,22 +982,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.40170475809522</v>
+        <v>26.40170475809515</v>
       </c>
       <c r="C17">
-        <v>18.45381658502007</v>
+        <v>18.4538165850201</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>8.817262963730299</v>
+        <v>8.817262963730368</v>
       </c>
       <c r="F17">
         <v>42.28330888343751</v>
       </c>
       <c r="G17">
-        <v>33.08620167070242</v>
+        <v>33.08620167070237</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>20.44220161716562</v>
+        <v>20.44220161716564</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,28 +1020,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.04153623629742</v>
+        <v>26.04153623629755</v>
       </c>
       <c r="C18">
-        <v>18.21108593186037</v>
+        <v>18.21108593186028</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>8.705881939752594</v>
+        <v>8.705881939752432</v>
       </c>
       <c r="F18">
-        <v>41.69798562154551</v>
+        <v>41.69798562154563</v>
       </c>
       <c r="G18">
-        <v>32.7057545962161</v>
+        <v>32.70575459621624</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>10.26382184857022</v>
+        <v>10.26382184857027</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>20.18269972271005</v>
+        <v>20.18269972271003</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,28 +1058,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.91892282569986</v>
+        <v>25.9189228256999</v>
       </c>
       <c r="C19">
-        <v>18.12848175347673</v>
+        <v>18.12848175347687</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>8.667921500590174</v>
+        <v>8.667921500590046</v>
       </c>
       <c r="F19">
-        <v>41.49892916878535</v>
+        <v>41.49892916878532</v>
       </c>
       <c r="G19">
-        <v>32.5769751095388</v>
+        <v>32.57697510953886</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>10.25748238707881</v>
+        <v>10.25748238707878</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>20.09435796883318</v>
+        <v>20.09435796883314</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,28 +1096,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.46804996767685</v>
+        <v>26.46804996767692</v>
       </c>
       <c r="C20">
-        <v>18.49854311903825</v>
+        <v>18.49854311903828</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>8.83775934859033</v>
+        <v>8.837759348590311</v>
       </c>
       <c r="F20">
-        <v>42.39122636058932</v>
+        <v>42.39122636058944</v>
       </c>
       <c r="G20">
-        <v>33.15663150252841</v>
+        <v>33.15663150252847</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>10.28706909395878</v>
+        <v>10.28706909395875</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>20.49000374482733</v>
+        <v>20.49000374482732</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,28 +1134,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.26838329979473</v>
+        <v>28.26838329979479</v>
       </c>
       <c r="C21">
-        <v>19.71391900275324</v>
+        <v>19.71391900275334</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>9.391343240984508</v>
+        <v>9.391343240984531</v>
       </c>
       <c r="F21">
-        <v>45.33048779655321</v>
+        <v>45.33048779655323</v>
       </c>
       <c r="G21">
-        <v>35.10777446174161</v>
+        <v>35.10777446174156</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>10.4063208635508</v>
+        <v>10.40632086355079</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>21.7870352494839</v>
+        <v>21.78703524948393</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,28 +1172,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.41390098062657</v>
+        <v>29.41390098062658</v>
       </c>
       <c r="C22">
-        <v>20.48895799175798</v>
+        <v>20.48895799175809</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>9.740755224585538</v>
+        <v>9.740755224585531</v>
       </c>
       <c r="F22">
-        <v>47.21062138982025</v>
+        <v>47.21062138982018</v>
       </c>
       <c r="G22">
-        <v>36.38752389106715</v>
+        <v>36.38752389106706</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>10.50076221676652</v>
+        <v>10.50076221676641</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>22.61198663600559</v>
+        <v>22.6119866360056</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,28 +1210,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.80521252746395</v>
+        <v>28.805212527464</v>
       </c>
       <c r="C23">
-        <v>20.076959876056</v>
+        <v>20.07695987605601</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>9.555379347739883</v>
+        <v>9.55537934773972</v>
       </c>
       <c r="F23">
-        <v>46.21068841722643</v>
+        <v>46.2106884172265</v>
       </c>
       <c r="G23">
-        <v>35.70393384930833</v>
+        <v>35.70393384930851</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>10.44873033777622</v>
+        <v>10.44873033777629</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>22.17368249416355</v>
+        <v>22.17368249416346</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,28 +1248,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.43806770893448</v>
+        <v>26.43806770893443</v>
       </c>
       <c r="C24">
-        <v>18.47833007648309</v>
+        <v>18.47833007648278</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>8.828497571822483</v>
+        <v>8.828497571822496</v>
       </c>
       <c r="F24">
-        <v>42.34245334770072</v>
+        <v>42.34245334770065</v>
       </c>
       <c r="G24">
-        <v>33.12478998745109</v>
+        <v>33.12478998745107</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>10.28537378853304</v>
+        <v>10.28537378853313</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>20.46840134187969</v>
+        <v>20.46840134187961</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.73769572627385</v>
+        <v>23.73769572627391</v>
       </c>
       <c r="C25">
-        <v>16.6615086873731</v>
+        <v>16.66150868737321</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>7.98926029365121</v>
+        <v>7.989260293651082</v>
       </c>
       <c r="F25">
-        <v>37.97690883314682</v>
+        <v>37.97690883314685</v>
       </c>
       <c r="G25">
         <v>30.35173242647664</v>
@@ -1307,7 +1307,7 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>10.16935976027603</v>
+        <v>10.16935976027594</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>18.52322817926042</v>
+        <v>18.52322817926039</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_37/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_37/res_line/loading_percent.xlsx
@@ -412,28 +412,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.60990645605184</v>
+        <v>21.60990645605186</v>
       </c>
       <c r="C2">
-        <v>15.23518850717386</v>
+        <v>15.235188507174</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>7.321829334801937</v>
+        <v>7.321829334801929</v>
       </c>
       <c r="F2">
-        <v>34.73333376686703</v>
+        <v>34.73333376686709</v>
       </c>
       <c r="G2">
-        <v>28.31140643169348</v>
+        <v>28.31140643169353</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>10.12537803912826</v>
+        <v>10.12537803912824</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>16.99239687727319</v>
+        <v>16.99239687727323</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,28 +450,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.07527455450555</v>
+        <v>20.07527455450561</v>
       </c>
       <c r="C3">
-        <v>14.20959459459217</v>
+        <v>14.20959459459219</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>6.837741641294272</v>
+        <v>6.837741641294241</v>
       </c>
       <c r="F3">
-        <v>32.49165688923141</v>
+        <v>32.49165688923139</v>
       </c>
       <c r="G3">
-        <v>26.92969029864418</v>
+        <v>26.92969029864403</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>10.11693283384234</v>
+        <v>10.11693283384223</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>15.89040240140494</v>
+        <v>15.89040240140497</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,28 +488,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.08568840259763</v>
+        <v>19.08568840259768</v>
       </c>
       <c r="C4">
-        <v>13.54977959838951</v>
+        <v>13.54977959838952</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>6.546152048843094</v>
+        <v>6.546152048843129</v>
       </c>
       <c r="F4">
         <v>31.07222546640399</v>
       </c>
       <c r="G4">
-        <v>26.08272152143863</v>
+        <v>26.08272152143854</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>10.12095718863159</v>
+        <v>10.12095718863151</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -526,28 +526,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.67030295913229</v>
+        <v>18.67030295913235</v>
       </c>
       <c r="C5">
-        <v>13.2732034530194</v>
+        <v>13.27320345301919</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6.437489939615045</v>
+        <v>6.437489939615077</v>
       </c>
       <c r="F5">
-        <v>30.48322037583425</v>
+        <v>30.48322037583424</v>
       </c>
       <c r="G5">
-        <v>25.73815294316661</v>
+        <v>25.73815294316655</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>10.12473056339081</v>
+        <v>10.12473056339073</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>14.88383988865061</v>
+        <v>14.88383988865056</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,25 +567,25 @@
         <v>18.60059019623069</v>
       </c>
       <c r="C6">
-        <v>13.22680997497879</v>
+        <v>13.22680997497875</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6.419329853259108</v>
+        <v>6.419329853259166</v>
       </c>
       <c r="F6">
-        <v>30.3847876248984</v>
+        <v>30.38478762489838</v>
       </c>
       <c r="G6">
-        <v>25.68098038247398</v>
+        <v>25.68098038247388</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>10.12548089458914</v>
+        <v>10.12548089458899</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>14.83396750967916</v>
+        <v>14.83396750967913</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -605,13 +605,13 @@
         <v>19.08013573155469</v>
       </c>
       <c r="C7">
-        <v>13.54608091346045</v>
+        <v>13.54608091346051</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>6.544694502317594</v>
+        <v>6.54469450231759</v>
       </c>
       <c r="F7">
         <v>31.06432433367583</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>15.17718063154731</v>
+        <v>15.17718063154729</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,28 +640,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.09044660445892</v>
+        <v>21.09044660445889</v>
       </c>
       <c r="C8">
-        <v>14.8877270212518</v>
+        <v>14.88772702125211</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>7.1581990630714</v>
+        <v>7.158199063071423</v>
       </c>
       <c r="F8">
-        <v>33.96944135981878</v>
+        <v>33.96944135981877</v>
       </c>
       <c r="G8">
-        <v>27.83480891430041</v>
+        <v>27.83480891430037</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>10.12044069782617</v>
+        <v>10.12044069782608</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -678,28 +678,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.66818877704012</v>
+        <v>24.66818877704017</v>
       </c>
       <c r="C9">
-        <v>17.28672284745613</v>
+        <v>17.2867228474561</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>8.27952108448606</v>
+        <v>8.279521084485992</v>
       </c>
       <c r="F9">
-        <v>39.47476441005065</v>
+        <v>39.47476441005073</v>
       </c>
       <c r="G9">
-        <v>31.28540817198805</v>
+        <v>31.28540817198815</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>10.20135931882415</v>
+        <v>10.20135931882411</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>19.19332307992468</v>
+        <v>19.19332307992469</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,28 +716,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.09145409993892</v>
+        <v>27.09145409993907</v>
       </c>
       <c r="C10">
-        <v>18.91902465688237</v>
+        <v>18.91902465688235</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>9.030028055693233</v>
+        <v>9.03002805569316</v>
       </c>
       <c r="F10">
-        <v>43.40669333516247</v>
+        <v>43.40669333516263</v>
       </c>
       <c r="G10">
-        <v>33.82362901507729</v>
+        <v>33.82362901507741</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>10.32444273818548</v>
+        <v>10.32444273818554</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>20.93916538939714</v>
+        <v>20.93916538939715</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,28 +754,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.15358485800383</v>
+        <v>28.1535848580038</v>
       </c>
       <c r="C11">
-        <v>19.63632272789548</v>
+        <v>19.63632272789543</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>9.35620063812642</v>
+        <v>9.356200638126351</v>
       </c>
       <c r="F11">
-        <v>45.14247393485282</v>
+        <v>45.14247393485284</v>
       </c>
       <c r="G11">
-        <v>34.9811224527903</v>
+        <v>34.98112245279042</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>10.39766882499782</v>
+        <v>10.3976688249979</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>21.70434371326071</v>
+        <v>21.70434371326067</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,28 +792,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.55041453176121</v>
+        <v>28.55041453176119</v>
       </c>
       <c r="C12">
-        <v>19.90461099603615</v>
+        <v>19.90461099603631</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>9.477584377881875</v>
+        <v>9.477584377881968</v>
       </c>
       <c r="F12">
-        <v>45.79271219829565</v>
+        <v>45.79271219829569</v>
       </c>
       <c r="G12">
-        <v>35.42017935671332</v>
+        <v>35.42017935671335</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>10.42819878987731</v>
+        <v>10.42819878987733</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>21.99017516314538</v>
+        <v>21.99017516314545</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,28 +830,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.46518216247558</v>
+        <v>28.46518216247545</v>
       </c>
       <c r="C13">
-        <v>19.84697356583911</v>
+        <v>19.84697356583904</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>9.451535957164655</v>
+        <v>9.451535957164811</v>
       </c>
       <c r="F13">
-        <v>45.65297616920549</v>
+        <v>45.65297616920548</v>
       </c>
       <c r="G13">
-        <v>35.32558097412669</v>
+        <v>35.3255809741267</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>10.42149350905503</v>
+        <v>10.42149350905505</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>21.92878645371493</v>
+        <v>21.92878645371489</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,28 +868,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.18633748240696</v>
+        <v>28.18633748240699</v>
       </c>
       <c r="C14">
-        <v>19.65845999964552</v>
+        <v>19.65845999964536</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>9.366229287496546</v>
+        <v>9.366229287496571</v>
       </c>
       <c r="F14">
-        <v>45.19610752464245</v>
+        <v>45.19610752464249</v>
       </c>
       <c r="G14">
-        <v>35.01722672790943</v>
+        <v>35.01722672790948</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>10.40012242984917</v>
+        <v>10.40012242984919</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>21.72793634577225</v>
+        <v>21.72793634577227</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,28 +906,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.01484999250995</v>
+        <v>28.01484999250992</v>
       </c>
       <c r="C15">
-        <v>19.54256490737421</v>
+        <v>19.54256490737416</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>9.313700897475229</v>
+        <v>9.313700897475206</v>
       </c>
       <c r="F15">
-        <v>44.91536019443708</v>
+        <v>44.91536019443691</v>
       </c>
       <c r="G15">
-        <v>34.8284592760504</v>
+        <v>34.82845927605023</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>10.3874069848248</v>
+        <v>10.38740698482473</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>21.60440670746233</v>
+        <v>21.60440670746235</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,7 +944,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.02126557600085</v>
+        <v>27.02126557600095</v>
       </c>
       <c r="C16">
         <v>18.8716636094241</v>
@@ -953,19 +953,19 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>9.008410324482819</v>
+        <v>9.008410324482877</v>
       </c>
       <c r="F16">
-        <v>43.29223564992085</v>
+        <v>43.29223564992094</v>
       </c>
       <c r="G16">
-        <v>33.74806647348231</v>
+        <v>33.7480664734823</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>10.32003079042947</v>
+        <v>10.32003079042935</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>20.88859561670962</v>
+        <v>20.88859561670974</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,22 +982,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.40170475809515</v>
+        <v>26.40170475809522</v>
       </c>
       <c r="C17">
-        <v>18.4538165850201</v>
+        <v>18.45381658502007</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>8.817262963730368</v>
+        <v>8.817262963730299</v>
       </c>
       <c r="F17">
         <v>42.28330888343751</v>
       </c>
       <c r="G17">
-        <v>33.08620167070237</v>
+        <v>33.08620167070242</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>20.44220161716564</v>
+        <v>20.44220161716562</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,28 +1020,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.04153623629755</v>
+        <v>26.04153623629742</v>
       </c>
       <c r="C18">
-        <v>18.21108593186028</v>
+        <v>18.21108593186037</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>8.705881939752432</v>
+        <v>8.705881939752594</v>
       </c>
       <c r="F18">
-        <v>41.69798562154563</v>
+        <v>41.69798562154551</v>
       </c>
       <c r="G18">
-        <v>32.70575459621624</v>
+        <v>32.7057545962161</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>10.26382184857027</v>
+        <v>10.26382184857022</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>20.18269972271003</v>
+        <v>20.18269972271005</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,28 +1058,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.9189228256999</v>
+        <v>25.91892282569986</v>
       </c>
       <c r="C19">
-        <v>18.12848175347687</v>
+        <v>18.12848175347673</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>8.667921500590046</v>
+        <v>8.667921500590174</v>
       </c>
       <c r="F19">
-        <v>41.49892916878532</v>
+        <v>41.49892916878535</v>
       </c>
       <c r="G19">
-        <v>32.57697510953886</v>
+        <v>32.5769751095388</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>10.25748238707878</v>
+        <v>10.25748238707881</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>20.09435796883314</v>
+        <v>20.09435796883318</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,28 +1096,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.46804996767692</v>
+        <v>26.46804996767685</v>
       </c>
       <c r="C20">
-        <v>18.49854311903828</v>
+        <v>18.49854311903825</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>8.837759348590311</v>
+        <v>8.83775934859033</v>
       </c>
       <c r="F20">
-        <v>42.39122636058944</v>
+        <v>42.39122636058932</v>
       </c>
       <c r="G20">
-        <v>33.15663150252847</v>
+        <v>33.15663150252841</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>10.28706909395875</v>
+        <v>10.28706909395878</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>20.49000374482732</v>
+        <v>20.49000374482733</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,28 +1134,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.26838329979479</v>
+        <v>28.26838329979473</v>
       </c>
       <c r="C21">
-        <v>19.71391900275334</v>
+        <v>19.71391900275324</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>9.391343240984531</v>
+        <v>9.391343240984508</v>
       </c>
       <c r="F21">
-        <v>45.33048779655323</v>
+        <v>45.33048779655321</v>
       </c>
       <c r="G21">
-        <v>35.10777446174156</v>
+        <v>35.10777446174161</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>10.40632086355079</v>
+        <v>10.4063208635508</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>21.78703524948393</v>
+        <v>21.7870352494839</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,28 +1172,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.41390098062658</v>
+        <v>29.41390098062657</v>
       </c>
       <c r="C22">
-        <v>20.48895799175809</v>
+        <v>20.48895799175798</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>9.740755224585531</v>
+        <v>9.740755224585538</v>
       </c>
       <c r="F22">
-        <v>47.21062138982018</v>
+        <v>47.21062138982025</v>
       </c>
       <c r="G22">
-        <v>36.38752389106706</v>
+        <v>36.38752389106715</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>10.50076221676641</v>
+        <v>10.50076221676652</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>22.6119866360056</v>
+        <v>22.61198663600559</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,28 +1210,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.805212527464</v>
+        <v>28.80521252746395</v>
       </c>
       <c r="C23">
-        <v>20.07695987605601</v>
+        <v>20.076959876056</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>9.55537934773972</v>
+        <v>9.555379347739883</v>
       </c>
       <c r="F23">
-        <v>46.2106884172265</v>
+        <v>46.21068841722643</v>
       </c>
       <c r="G23">
-        <v>35.70393384930851</v>
+        <v>35.70393384930833</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>10.44873033777629</v>
+        <v>10.44873033777622</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>22.17368249416346</v>
+        <v>22.17368249416355</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,28 +1248,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.43806770893443</v>
+        <v>26.43806770893448</v>
       </c>
       <c r="C24">
-        <v>18.47833007648278</v>
+        <v>18.47833007648309</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>8.828497571822496</v>
+        <v>8.828497571822483</v>
       </c>
       <c r="F24">
-        <v>42.34245334770065</v>
+        <v>42.34245334770072</v>
       </c>
       <c r="G24">
-        <v>33.12478998745107</v>
+        <v>33.12478998745109</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>10.28537378853313</v>
+        <v>10.28537378853304</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>20.46840134187961</v>
+        <v>20.46840134187969</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.73769572627391</v>
+        <v>23.73769572627385</v>
       </c>
       <c r="C25">
-        <v>16.66150868737321</v>
+        <v>16.6615086873731</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>7.989260293651082</v>
+        <v>7.98926029365121</v>
       </c>
       <c r="F25">
-        <v>37.97690883314685</v>
+        <v>37.97690883314682</v>
       </c>
       <c r="G25">
         <v>30.35173242647664</v>
@@ -1307,7 +1307,7 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>10.16935976027594</v>
+        <v>10.16935976027603</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>18.52322817926039</v>
+        <v>18.52322817926042</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_37/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_37/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.60990645605186</v>
+        <v>21.6075818752735</v>
       </c>
       <c r="C2">
-        <v>15.235188507174</v>
+        <v>15.232792219219</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>7.321829334801929</v>
+        <v>7.335027846371038</v>
       </c>
       <c r="F2">
-        <v>34.73333376686709</v>
+        <v>34.71166728196884</v>
       </c>
       <c r="G2">
-        <v>28.31140643169353</v>
+        <v>27.33118822411734</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>28.33170054186032</v>
       </c>
       <c r="I2">
-        <v>10.12537803912824</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>10.11097295791358</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>16.99239687727323</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>16.99694564463297</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.07527455450561</v>
+        <v>20.07335374243216</v>
       </c>
       <c r="C3">
-        <v>14.20959459459219</v>
+        <v>14.20764927031636</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>6.837741641294241</v>
+        <v>6.849922149638889</v>
       </c>
       <c r="F3">
-        <v>32.49165688923139</v>
+        <v>32.47142011462555</v>
       </c>
       <c r="G3">
-        <v>26.92969029864403</v>
+        <v>25.71392934130169</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>26.94975531448089</v>
       </c>
       <c r="I3">
-        <v>10.11693283384223</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>10.10395127156993</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>15.89040240140497</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>15.89474933194855</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.08568840259768</v>
+        <v>19.08401053247668</v>
       </c>
       <c r="C4">
-        <v>13.54977959838952</v>
+        <v>13.54811527510895</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>6.546152048843129</v>
+        <v>6.558779703336562</v>
       </c>
       <c r="F4">
-        <v>31.07222546640399</v>
+        <v>31.05290404911884</v>
       </c>
       <c r="G4">
-        <v>26.08272152143854</v>
+        <v>24.7070753301061</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>26.10274583184071</v>
       </c>
       <c r="I4">
-        <v>10.12095718863151</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>10.10884140996858</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>15.18115666452056</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>15.18536404444244</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.67030295913235</v>
+        <v>18.66872322084187</v>
       </c>
       <c r="C5">
-        <v>13.27320345301919</v>
+        <v>13.27165514717932</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6.437489939615077</v>
+        <v>6.449888907748813</v>
       </c>
       <c r="F5">
-        <v>30.48322037583424</v>
+        <v>30.46428197555667</v>
       </c>
       <c r="G5">
-        <v>25.73815294316655</v>
+        <v>24.29352766564627</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>25.75818637373114</v>
       </c>
       <c r="I5">
-        <v>10.12473056339073</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>10.11296558768278</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>14.88383988865056</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>14.88798664334347</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.60059019623069</v>
+        <v>18.59902671054374</v>
       </c>
       <c r="C6">
-        <v>13.22680997497875</v>
+        <v>13.22528103858324</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6.419329853259166</v>
+        <v>6.43169049044868</v>
       </c>
       <c r="F6">
-        <v>30.38478762489838</v>
+        <v>30.36591344418665</v>
       </c>
       <c r="G6">
-        <v>25.68098038247388</v>
+        <v>24.22467131447105</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>25.70101689442619</v>
       </c>
       <c r="I6">
-        <v>10.12548089458899</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>10.11377405117446</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>14.83396750967913</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>14.83810397535689</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.08013573155469</v>
+        <v>19.07845918791828</v>
       </c>
       <c r="C7">
-        <v>13.54608091346051</v>
+        <v>13.54441814810516</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>6.54469450231759</v>
+        <v>6.557319096664843</v>
       </c>
       <c r="F7">
-        <v>31.06432433367583</v>
+        <v>31.04500804067512</v>
       </c>
       <c r="G7">
-        <v>26.07807186195722</v>
+        <v>24.70151083529972</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>26.09809619059848</v>
       </c>
       <c r="I7">
-        <v>10.12099967121218</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>10.10888863160723</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>15.17718063154729</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>15.1813872088553</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.09044660445889</v>
+        <v>21.08826251916427</v>
       </c>
       <c r="C8">
-        <v>14.88772702125211</v>
+        <v>14.88548566145549</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>7.158199063071423</v>
+        <v>7.171053961871418</v>
       </c>
       <c r="F8">
-        <v>33.96944135981877</v>
+        <v>33.9482604111296</v>
       </c>
       <c r="G8">
-        <v>27.83480891430037</v>
+        <v>26.77653990673982</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>27.85500366291002</v>
       </c>
       <c r="I8">
-        <v>10.12044069782608</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>10.10652818073872</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>16.61913673256911</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>16.62361925769454</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.66818877704017</v>
+        <v>24.66495003852938</v>
       </c>
       <c r="C9">
-        <v>17.2867228474561</v>
+        <v>17.28335726820505</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>8.279521084485992</v>
+        <v>8.294725552606375</v>
       </c>
       <c r="F9">
-        <v>39.47476441005073</v>
+        <v>39.45011731677013</v>
       </c>
       <c r="G9">
-        <v>31.28540817198815</v>
+        <v>30.73125739067252</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>31.30670054239179</v>
       </c>
       <c r="I9">
-        <v>10.20135931882411</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>10.18384910421484</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>19.19332307992469</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>19.19821392496906</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.09145409993907</v>
+        <v>27.08737128271066</v>
       </c>
       <c r="C10">
-        <v>18.91902465688235</v>
+        <v>18.91480576997569</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>9.03002805569316</v>
+        <v>9.046804834225849</v>
       </c>
       <c r="F10">
-        <v>43.40669333516263</v>
+        <v>43.37969733672883</v>
       </c>
       <c r="G10">
-        <v>33.82362901507741</v>
+        <v>33.56962879500085</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>33.84615000575422</v>
       </c>
       <c r="I10">
-        <v>10.32444273818554</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>10.30425561855164</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>20.93916538939715</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>20.94426050776357</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.1535848580038</v>
+        <v>28.14909367517878</v>
       </c>
       <c r="C11">
-        <v>19.63632272789543</v>
+        <v>19.63170092758737</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>9.356200638126351</v>
+        <v>9.37366254713497</v>
       </c>
       <c r="F11">
-        <v>45.14247393485284</v>
+        <v>45.1144187200792</v>
       </c>
       <c r="G11">
-        <v>34.98112245279042</v>
+        <v>34.84933657099498</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>35.0042844100551</v>
       </c>
       <c r="I11">
-        <v>10.3976688249979</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>10.37625924323317</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>21.70434371326067</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>21.70950675041069</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.55041453176119</v>
+        <v>28.54576422163074</v>
       </c>
       <c r="C12">
-        <v>19.90461099603631</v>
+        <v>19.89983361643964</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>9.477584377881968</v>
+        <v>9.495301680767033</v>
       </c>
       <c r="F12">
-        <v>45.79271219829569</v>
+        <v>45.76425599906489</v>
       </c>
       <c r="G12">
-        <v>35.42017935671335</v>
+        <v>35.33269771648966</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>35.44359500873272</v>
       </c>
       <c r="I12">
-        <v>10.42819878987733</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>10.4063258981835</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>21.99017516314545</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>21.99535987196243</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.46518216247545</v>
+        <v>28.46056634072371</v>
       </c>
       <c r="C13">
-        <v>19.84697356583904</v>
+        <v>19.84222984253696</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>9.451535957164811</v>
+        <v>9.469198431835727</v>
       </c>
       <c r="F13">
-        <v>45.65297616920548</v>
+        <v>45.62460634610882</v>
       </c>
       <c r="G13">
-        <v>35.3255809741267</v>
+        <v>35.22864411269899</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>35.34894151385519</v>
       </c>
       <c r="I13">
-        <v>10.42149350905505</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>10.39972041207236</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>21.92878645371489</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>21.93396668345891</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.18633748240699</v>
+        <v>28.18183330438809</v>
       </c>
       <c r="C14">
-        <v>19.65845999964536</v>
+        <v>19.65382546561196</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>9.366229287496571</v>
+        <v>9.383712287398509</v>
       </c>
       <c r="F14">
-        <v>45.19610752464249</v>
+        <v>45.16801932617864</v>
       </c>
       <c r="G14">
-        <v>35.01722672790948</v>
+        <v>34.88912488293318</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>35.04040934168561</v>
       </c>
       <c r="I14">
-        <v>10.40012242984919</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>10.37867473741449</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>21.72793634577227</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>21.73310124993308</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.01484999250992</v>
+        <v>28.01041358240407</v>
       </c>
       <c r="C15">
-        <v>19.54256490737416</v>
+        <v>19.5379968345662</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>9.313700897475206</v>
+        <v>9.331073445148814</v>
       </c>
       <c r="F15">
-        <v>44.91536019443691</v>
+        <v>44.88744447398199</v>
       </c>
       <c r="G15">
-        <v>34.82845927605023</v>
+        <v>34.68101325046536</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>34.8515343092683</v>
       </c>
       <c r="I15">
-        <v>10.38740698482473</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>10.36615857009875</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>21.60440670746235</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>21.60956168201656</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.02126557600095</v>
+        <v>27.01720887629907</v>
       </c>
       <c r="C16">
-        <v>18.8716636094241</v>
+        <v>18.86747068515669</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>9.008410324482877</v>
+        <v>9.025141745603278</v>
       </c>
       <c r="F16">
-        <v>43.29223564992094</v>
+        <v>43.26530896229234</v>
       </c>
       <c r="G16">
-        <v>33.7480664734823</v>
+        <v>33.48579811268199</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>33.77054715676163</v>
       </c>
       <c r="I16">
-        <v>10.32003079042935</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>10.29992349080376</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>20.88859561670974</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>20.89368575680274</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.40170475809522</v>
+        <v>26.3978741144153</v>
       </c>
       <c r="C17">
-        <v>18.45381658502007</v>
+        <v>18.44984944514631</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>8.817262963730299</v>
+        <v>8.833593553893973</v>
       </c>
       <c r="F17">
-        <v>42.28330888343751</v>
+        <v>42.25699052610044</v>
       </c>
       <c r="G17">
-        <v>33.08620167070242</v>
+        <v>32.74988309921742</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>33.10833817723501</v>
       </c>
       <c r="I17">
-        <v>10.28333015881315</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>10.26392188485815</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>20.44220161716562</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>20.44724528674008</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.04153623629742</v>
+        <v>26.03783338751389</v>
       </c>
       <c r="C18">
-        <v>18.21108593186037</v>
+        <v>18.20724733091757</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>8.705881939752594</v>
+        <v>8.721979129654089</v>
       </c>
       <c r="F18">
-        <v>41.69798562154551</v>
+        <v>41.67201812211224</v>
       </c>
       <c r="G18">
-        <v>32.7057545962161</v>
+        <v>32.32549052430576</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>32.72770091552576</v>
       </c>
       <c r="I18">
-        <v>10.26382184857022</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>10.24481517117717</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>20.18269972271005</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>20.18771434205828</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.91892282569986</v>
+        <v>25.91526289038294</v>
       </c>
       <c r="C19">
-        <v>18.12848175347673</v>
+        <v>18.12468647029154</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>8.667921500590174</v>
+        <v>8.683939166930278</v>
       </c>
       <c r="F19">
-        <v>41.49892916878535</v>
+        <v>41.47308066242599</v>
       </c>
       <c r="G19">
-        <v>32.5769751095388</v>
+        <v>32.18159682738364</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>32.59885839479479</v>
       </c>
       <c r="I19">
-        <v>10.25748238707881</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>10.23861159513654</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>20.09435796883318</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>20.09936236576734</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.46804996767685</v>
+        <v>26.46419549686031</v>
       </c>
       <c r="C20">
-        <v>18.49854311903825</v>
+        <v>18.49455208720741</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>8.83775934859033</v>
+        <v>8.854132901183297</v>
       </c>
       <c r="F20">
-        <v>42.39122636058932</v>
+        <v>42.36484315391967</v>
       </c>
       <c r="G20">
-        <v>33.15663150252841</v>
+        <v>32.82833521382263</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>33.17880384856871</v>
       </c>
       <c r="I20">
-        <v>10.28706909395878</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>10.2675864535658</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>20.49000374482733</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>20.49505260451186</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.26838329979473</v>
+        <v>28.26384645995804</v>
       </c>
       <c r="C21">
-        <v>19.71391900275324</v>
+        <v>19.709252486605</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>9.391343240984508</v>
+        <v>9.408879064551046</v>
       </c>
       <c r="F21">
-        <v>45.33048779655321</v>
+        <v>45.3023168859102</v>
       </c>
       <c r="G21">
-        <v>35.10777446174161</v>
+        <v>34.98887945800177</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>35.13100904556231</v>
       </c>
       <c r="I21">
-        <v>10.4063208635508</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>10.38477760013242</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>21.7870352494839</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>21.79220476909587</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.41390098062657</v>
+        <v>29.4088913976634</v>
       </c>
       <c r="C22">
-        <v>20.48895799175798</v>
+        <v>20.48383195475905</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>9.740755224585538</v>
+        <v>9.759027199329285</v>
       </c>
       <c r="F22">
-        <v>47.21062138982025</v>
+        <v>47.18128203405099</v>
       </c>
       <c r="G22">
-        <v>36.38752389106715</v>
+        <v>36.39594426839365</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>36.41151626522838</v>
       </c>
       <c r="I22">
-        <v>10.50076221676652</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>10.47787007719849</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>22.61198663600559</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>22.61721113282696</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.80521252746395</v>
+        <v>28.80045808724729</v>
       </c>
       <c r="C23">
-        <v>20.076959876056</v>
+        <v>20.07208108362053</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>9.555379347739883</v>
+        <v>9.57326047252598</v>
       </c>
       <c r="F23">
-        <v>46.21068841722643</v>
+        <v>46.18197316304191</v>
       </c>
       <c r="G23">
-        <v>35.70393384930833</v>
+        <v>35.64452301820275</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>35.72751624352191</v>
       </c>
       <c r="I23">
-        <v>10.44873033777622</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>10.42655821800452</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>22.17368249416355</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>22.17888001073645</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.43806770893448</v>
+        <v>26.43422401704661</v>
       </c>
       <c r="C24">
-        <v>18.47833007648309</v>
+        <v>18.47434985008907</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>8.828497571822483</v>
+        <v>8.844851710335256</v>
       </c>
       <c r="F24">
-        <v>42.34245334770072</v>
+        <v>42.31609945583198</v>
       </c>
       <c r="G24">
-        <v>33.12478998745109</v>
+        <v>32.79287110773143</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>33.14694610646792</v>
       </c>
       <c r="I24">
-        <v>10.28537378853304</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>10.2659247701067</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>20.46840134187969</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>20.47344786235238</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.73769572627385</v>
+        <v>23.73475172696055</v>
       </c>
       <c r="C25">
-        <v>16.6615086873731</v>
+        <v>16.65844938676078</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>7.98926029365121</v>
+        <v>8.00385725312243</v>
       </c>
       <c r="F25">
-        <v>37.97690883314682</v>
+        <v>37.95314190470395</v>
       </c>
       <c r="G25">
-        <v>30.35173242647664</v>
+        <v>29.67381574330642</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>30.3726504839281</v>
       </c>
       <c r="I25">
-        <v>10.16935976027603</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>10.15282943653138</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>18.52322817926042</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>18.52802414768727</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_37/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_37/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.6075818752735</v>
+        <v>24.0439583278727</v>
       </c>
       <c r="C2">
-        <v>15.232792219219</v>
+        <v>13.53724906106666</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>7.335027846371038</v>
+        <v>6.505423855758832</v>
       </c>
       <c r="F2">
-        <v>34.71166728196884</v>
+        <v>39.4124985546491</v>
       </c>
       <c r="G2">
-        <v>27.33118822411734</v>
+        <v>2.105269838823546</v>
       </c>
       <c r="H2">
-        <v>28.33170054186032</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.11097295791358</v>
+        <v>6.15604783250819</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>6.915926228018766</v>
       </c>
       <c r="M2">
-        <v>16.99694564463297</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>30.34708512564088</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.07335374243216</v>
+        <v>22.51269315148592</v>
       </c>
       <c r="C3">
-        <v>14.20764927031636</v>
+        <v>12.64977992656125</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>6.849922149638889</v>
+        <v>6.494012118057173</v>
       </c>
       <c r="F3">
-        <v>32.47142011462555</v>
+        <v>38.08792635356026</v>
       </c>
       <c r="G3">
-        <v>25.71392934130169</v>
+        <v>2.116850213757655</v>
       </c>
       <c r="H3">
-        <v>26.94975531448089</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.10395127156993</v>
+        <v>6.242737018168041</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>6.746747701639966</v>
       </c>
       <c r="M3">
-        <v>15.89474933194855</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>29.40249103555693</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.08401053247668</v>
+        <v>21.53693613576703</v>
       </c>
       <c r="C4">
-        <v>13.54811527510895</v>
+        <v>12.07921927563778</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>6.558779703336562</v>
+        <v>6.488521688823044</v>
       </c>
       <c r="F4">
-        <v>31.05290404911884</v>
+        <v>37.29136564594236</v>
       </c>
       <c r="G4">
-        <v>24.7070753301061</v>
+        <v>2.12411045114186</v>
       </c>
       <c r="H4">
-        <v>26.10274583184071</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.10884140996858</v>
+        <v>6.297575039098262</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.644256718365499</v>
       </c>
       <c r="M4">
-        <v>15.18536404444244</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>28.84126230633299</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.66872322084187</v>
+        <v>21.13053399205497</v>
       </c>
       <c r="C5">
-        <v>13.27165514717932</v>
+        <v>11.84017705842239</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6.449888907748813</v>
+        <v>6.486646039435779</v>
       </c>
       <c r="F5">
-        <v>30.46428197555667</v>
+        <v>36.97115096467791</v>
       </c>
       <c r="G5">
-        <v>24.29352766564627</v>
+        <v>2.127109755712991</v>
       </c>
       <c r="H5">
-        <v>25.75818637373114</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.11296558768278</v>
+        <v>6.320327960603136</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.602881802786867</v>
       </c>
       <c r="M5">
-        <v>14.88798664334347</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>28.6172971207402</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.59902671054374</v>
+        <v>21.06252788595877</v>
       </c>
       <c r="C6">
-        <v>13.22528103858324</v>
+        <v>11.80008754058713</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6.43169049044868</v>
+        <v>6.486355908018945</v>
       </c>
       <c r="F6">
-        <v>30.36591344418665</v>
+        <v>36.91825048780527</v>
       </c>
       <c r="G6">
-        <v>24.22467131447105</v>
+        <v>2.127610329765674</v>
       </c>
       <c r="H6">
-        <v>25.70101689442619</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.11377405117446</v>
+        <v>6.324130631864324</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.596036434014213</v>
       </c>
       <c r="M6">
-        <v>14.83810397535689</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>28.5803949863739</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.07845918791828</v>
+        <v>21.53149049437544</v>
       </c>
       <c r="C7">
-        <v>13.54441814810516</v>
+        <v>12.07602202276246</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>6.557319096664843</v>
+        <v>6.488494952693504</v>
       </c>
       <c r="F7">
-        <v>31.04500804067512</v>
+        <v>37.28702908440658</v>
       </c>
       <c r="G7">
-        <v>24.70151083529972</v>
+        <v>2.124150732206584</v>
       </c>
       <c r="H7">
-        <v>26.09809619059848</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.10888863160723</v>
+        <v>6.297880247170997</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.643697080637359</v>
       </c>
       <c r="M7">
-        <v>15.1813872088553</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>28.83822260413027</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.08826251916427</v>
+        <v>23.52343203447399</v>
       </c>
       <c r="C8">
-        <v>14.88548566145549</v>
+        <v>13.23651719242693</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>7.171053961871418</v>
+        <v>6.501161831369104</v>
       </c>
       <c r="F8">
-        <v>33.9482604111296</v>
+        <v>38.95241444473313</v>
       </c>
       <c r="G8">
-        <v>26.77653990673982</v>
+        <v>2.109233551443414</v>
       </c>
       <c r="H8">
-        <v>27.85500366291002</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.10652818073872</v>
+        <v>6.185604327306686</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>6.857330711309589</v>
       </c>
       <c r="M8">
-        <v>16.62361925769454</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>30.01750684595109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.66495003852938</v>
+        <v>27.29030517799253</v>
       </c>
       <c r="C9">
-        <v>17.28335726820505</v>
+        <v>15.31350678285744</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>8.294725552606375</v>
+        <v>6.539055881347269</v>
       </c>
       <c r="F9">
-        <v>39.45011731677013</v>
+        <v>42.34487518647303</v>
       </c>
       <c r="G9">
-        <v>30.73125739067252</v>
+        <v>2.081018891360843</v>
       </c>
       <c r="H9">
-        <v>31.30670054239179</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.18384910421484</v>
+        <v>5.978220249387346</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>7.285554376013737</v>
       </c>
       <c r="M9">
-        <v>19.19821392496906</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>32.47890302906936</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.08737128271066</v>
+        <v>29.94481620522859</v>
       </c>
       <c r="C10">
-        <v>18.91480576997569</v>
+        <v>16.72646521713741</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>9.046804834225849</v>
+        <v>6.576535812594406</v>
       </c>
       <c r="F10">
-        <v>43.37969733672883</v>
+        <v>44.91037312900914</v>
       </c>
       <c r="G10">
-        <v>33.56962879500085</v>
+        <v>2.060685818970143</v>
       </c>
       <c r="H10">
-        <v>33.84615000575422</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.30425561855164</v>
+        <v>5.833787016059548</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>7.603888656794866</v>
       </c>
       <c r="M10">
-        <v>20.94426050776357</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>34.38068463173411</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.14909367517878</v>
+        <v>31.10733909685172</v>
       </c>
       <c r="C11">
-        <v>19.63170092758737</v>
+        <v>17.34696083160723</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>9.37366254713497</v>
+        <v>6.596143295764613</v>
       </c>
       <c r="F11">
-        <v>45.1144187200792</v>
+        <v>46.09390231542167</v>
       </c>
       <c r="G11">
-        <v>34.84933657099498</v>
+        <v>2.051460604734027</v>
       </c>
       <c r="H11">
-        <v>35.0042844100551</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.37625924323317</v>
+        <v>5.769884285814112</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>7.749219762487194</v>
       </c>
       <c r="M11">
-        <v>21.70950675041069</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>35.26771812661205</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.54576422163074</v>
+        <v>31.54141005629641</v>
       </c>
       <c r="C12">
-        <v>19.89983361643964</v>
+        <v>17.57894649144447</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>9.495301680767033</v>
+        <v>6.603983288228036</v>
       </c>
       <c r="F12">
-        <v>45.76425599906489</v>
+        <v>46.54460216449915</v>
       </c>
       <c r="G12">
-        <v>35.33269771648966</v>
+        <v>2.047964843593598</v>
       </c>
       <c r="H12">
-        <v>35.44359500873272</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.4063258981835</v>
+        <v>5.745957024980284</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>7.804312070893261</v>
       </c>
       <c r="M12">
-        <v>21.99535987196243</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>35.60698235943823</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.46056634072371</v>
+        <v>31.44819296151411</v>
       </c>
       <c r="C13">
-        <v>19.84222984253696</v>
+        <v>17.52911302125688</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>9.469198431835727</v>
+        <v>6.60227550040028</v>
       </c>
       <c r="F13">
-        <v>45.62460634610882</v>
+        <v>46.44742008476425</v>
       </c>
       <c r="G13">
-        <v>35.22864411269899</v>
+        <v>2.048717926384646</v>
       </c>
       <c r="H13">
-        <v>35.34894151385519</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.39972041207236</v>
+        <v>5.751097870596622</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>7.792444520025459</v>
       </c>
       <c r="M13">
-        <v>21.93396668345891</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>35.5337618019697</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.18183330438809</v>
+        <v>31.14317161241621</v>
       </c>
       <c r="C14">
-        <v>19.65382546561196</v>
+        <v>17.36610482913305</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>9.383712287398509</v>
+        <v>6.596779676848086</v>
       </c>
       <c r="F14">
-        <v>45.16801932617864</v>
+        <v>46.13092983796827</v>
       </c>
       <c r="G14">
-        <v>34.88912488293318</v>
+        <v>2.051173090549395</v>
       </c>
       <c r="H14">
-        <v>35.04040934168561</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.37867473741449</v>
+        <v>5.767910249301023</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>7.753751129010469</v>
       </c>
       <c r="M14">
-        <v>21.73310124993308</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>35.29556065220198</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.01041358240407</v>
+        <v>30.95554666632729</v>
       </c>
       <c r="C15">
-        <v>19.5379968345662</v>
+        <v>17.26587627262735</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>9.331073445148814</v>
+        <v>6.593468927914518</v>
       </c>
       <c r="F15">
-        <v>44.88744447398199</v>
+        <v>45.93740536925883</v>
       </c>
       <c r="G15">
-        <v>34.68101325046536</v>
+        <v>2.05267645192421</v>
       </c>
       <c r="H15">
-        <v>34.8515343092683</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.36615857009875</v>
+        <v>5.778244102245097</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>7.730057599122348</v>
       </c>
       <c r="M15">
-        <v>21.60956168201656</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>35.15010144570244</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.01720887629907</v>
+        <v>29.8679630155651</v>
       </c>
       <c r="C16">
-        <v>18.86747068515669</v>
+        <v>16.68548430822176</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>9.025141745603278</v>
+        <v>6.575309737465764</v>
       </c>
       <c r="F16">
-        <v>43.26530896229234</v>
+        <v>44.8333690246246</v>
       </c>
       <c r="G16">
-        <v>33.48579811268199</v>
+        <v>2.061288714876206</v>
       </c>
       <c r="H16">
-        <v>33.77054715676163</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.29992349080376</v>
+        <v>5.8380003932991</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>7.594399817334817</v>
       </c>
       <c r="M16">
-        <v>20.89368575680274</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>34.32317209950929</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.3978741144153</v>
+        <v>29.18944714555605</v>
       </c>
       <c r="C17">
-        <v>18.44984944514631</v>
+        <v>16.32387548650244</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>8.833593553893973</v>
+        <v>6.564855834351897</v>
       </c>
       <c r="F17">
-        <v>42.25699052610044</v>
+        <v>44.16037520042505</v>
       </c>
       <c r="G17">
-        <v>32.74988309921742</v>
+        <v>2.066574371501908</v>
       </c>
       <c r="H17">
-        <v>33.10833817723501</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.26392188485815</v>
+        <v>5.875127480236064</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>7.511297202002734</v>
       </c>
       <c r="M17">
-        <v>20.44724528674008</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>33.82161473784429</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.03783338751389</v>
+        <v>28.79492218934668</v>
       </c>
       <c r="C18">
-        <v>18.20724733091757</v>
+        <v>16.11377686459666</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>8.721979129654089</v>
+        <v>6.55908048869492</v>
       </c>
       <c r="F18">
-        <v>41.67201812211224</v>
+        <v>43.77482222095654</v>
       </c>
       <c r="G18">
-        <v>32.32549052430576</v>
+        <v>2.069617234268107</v>
       </c>
       <c r="H18">
-        <v>32.72770091552576</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.24481517117717</v>
+        <v>5.896650493518596</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>7.46354814559653</v>
       </c>
       <c r="M18">
-        <v>20.18771434205828</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>33.53517651024774</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.91526289038294</v>
+        <v>28.66060203800189</v>
       </c>
       <c r="C19">
-        <v>18.12468647029154</v>
+        <v>16.0422724013223</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>8.683939166930278</v>
+        <v>6.557164532355821</v>
       </c>
       <c r="F19">
-        <v>41.47308066242599</v>
+        <v>43.64454124096357</v>
       </c>
       <c r="G19">
-        <v>32.18159682738364</v>
+        <v>2.070648124186909</v>
       </c>
       <c r="H19">
-        <v>32.59885839479479</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.23861159513654</v>
+        <v>5.903966454409214</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>7.447390235007799</v>
       </c>
       <c r="M19">
-        <v>20.09936236576734</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>33.43853935484326</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.46419549686031</v>
+        <v>29.26211509205536</v>
       </c>
       <c r="C20">
-        <v>18.49455208720741</v>
+        <v>16.36258633851592</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>8.854132901183297</v>
+        <v>6.565943777568497</v>
       </c>
       <c r="F20">
-        <v>42.36484315391967</v>
+        <v>44.23185685571146</v>
       </c>
       <c r="G20">
-        <v>32.82833521382263</v>
+        <v>2.066011465685801</v>
       </c>
       <c r="H20">
-        <v>33.17880384856871</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.2675864535658</v>
+        <v>5.871157725463762</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>7.520138649794124</v>
       </c>
       <c r="M20">
-        <v>20.49505260451186</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>33.87479350857165</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.26384645995804</v>
+        <v>31.23292787544543</v>
       </c>
       <c r="C21">
-        <v>19.709252486605</v>
+        <v>17.4140633156755</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>9.408879064551046</v>
+        <v>6.598382249402111</v>
       </c>
       <c r="F21">
-        <v>45.3023168859102</v>
+        <v>46.22382046666532</v>
       </c>
       <c r="G21">
-        <v>34.98887945800177</v>
+        <v>2.050452064696836</v>
       </c>
       <c r="H21">
-        <v>35.13100904556231</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.38477760013242</v>
+        <v>5.762964559107542</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>7.765114813862881</v>
       </c>
       <c r="M21">
-        <v>21.79220476909587</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>35.36543267971128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.4088913976634</v>
+        <v>32.48530355597521</v>
       </c>
       <c r="C22">
-        <v>20.48383195475905</v>
+        <v>18.08400693874247</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>9.759027199329285</v>
+        <v>6.622030441704098</v>
       </c>
       <c r="F22">
-        <v>47.18128203405099</v>
+        <v>47.54054019002179</v>
       </c>
       <c r="G22">
-        <v>36.39594426839365</v>
+        <v>2.040265912192177</v>
       </c>
       <c r="H22">
-        <v>36.41151626522838</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.47787007719849</v>
+        <v>5.693845131666342</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>7.925560879895374</v>
       </c>
       <c r="M22">
-        <v>22.61721113282696</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>36.35942241459517</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.80045808724729</v>
+        <v>31.82002924155967</v>
       </c>
       <c r="C23">
-        <v>20.07208108362053</v>
+        <v>17.72794286583518</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>9.57326047252598</v>
+        <v>6.609167039711291</v>
       </c>
       <c r="F23">
-        <v>46.18197316304191</v>
+        <v>46.83634351911718</v>
       </c>
       <c r="G23">
-        <v>35.64452301820275</v>
+        <v>2.045706192477912</v>
       </c>
       <c r="H23">
-        <v>35.72751624352191</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.42655821800452</v>
+        <v>5.730584423668813</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>7.839899828045885</v>
       </c>
       <c r="M23">
-        <v>22.17888001073645</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>35.82700867954968</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.43422401704661</v>
+        <v>29.22927575792077</v>
       </c>
       <c r="C24">
-        <v>18.47434985008907</v>
+        <v>16.34509204616655</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>8.844851710335256</v>
+        <v>6.565451190709299</v>
       </c>
       <c r="F24">
-        <v>42.31609945583198</v>
+        <v>44.19953577309562</v>
       </c>
       <c r="G24">
-        <v>32.79287110773143</v>
+        <v>2.066265942300165</v>
       </c>
       <c r="H24">
-        <v>33.14694610646792</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.2659247701067</v>
+        <v>5.872951897557568</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>7.516141343495017</v>
       </c>
       <c r="M24">
-        <v>20.47344786235238</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>33.85074544036099</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.73475172696055</v>
+        <v>26.27095582086288</v>
       </c>
       <c r="C25">
-        <v>16.65844938676078</v>
+        <v>14.77214317071922</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>8.00385725312243</v>
+        <v>6.527249408154103</v>
       </c>
       <c r="F25">
-        <v>37.95314190470395</v>
+        <v>41.41421707667951</v>
       </c>
       <c r="G25">
-        <v>29.67381574330642</v>
+        <v>2.088563361528549</v>
       </c>
       <c r="H25">
-        <v>30.3726504839281</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.15282943653138</v>
+        <v>6.032947785263437</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>7.168933864216174</v>
       </c>
       <c r="M25">
-        <v>18.52802414768727</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>31.79696913803314</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_37/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_37/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.0439583278727</v>
+        <v>13.92866744868868</v>
       </c>
       <c r="C2">
-        <v>13.53724906106666</v>
+        <v>7.65110500294629</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>6.505423855758832</v>
+        <v>21.86201246443954</v>
       </c>
       <c r="F2">
-        <v>39.4124985546491</v>
+        <v>37.3201002799781</v>
       </c>
       <c r="G2">
-        <v>2.105269838823546</v>
+        <v>28.46094249474973</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>10.14956691732372</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.15604783250819</v>
+        <v>4.939238747052511</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>12.23374815260075</v>
       </c>
       <c r="L2">
-        <v>6.915926228018766</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>12.47101348026299</v>
       </c>
       <c r="O2">
-        <v>30.34708512564088</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.51269315148592</v>
+        <v>12.96842070443525</v>
       </c>
       <c r="C3">
-        <v>12.64977992656125</v>
+        <v>7.185201665835497</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>6.494012118057173</v>
+        <v>20.51701159761423</v>
       </c>
       <c r="F3">
-        <v>38.08792635356026</v>
+        <v>35.66185558831202</v>
       </c>
       <c r="G3">
-        <v>2.116850213757655</v>
+        <v>27.93110549897341</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>10.19083613327014</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.242737018168041</v>
+        <v>4.989056164421484</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>11.44098279543722</v>
       </c>
       <c r="L3">
-        <v>6.746747701639966</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>12.71776544121016</v>
       </c>
       <c r="O3">
-        <v>29.40249103555693</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.53693613576703</v>
+        <v>12.34552676935366</v>
       </c>
       <c r="C4">
-        <v>12.07921927563778</v>
+        <v>6.884685150665296</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>6.488521688823044</v>
+        <v>19.65931579464649</v>
       </c>
       <c r="F4">
-        <v>37.29136564594236</v>
+        <v>34.63982223036503</v>
       </c>
       <c r="G4">
-        <v>2.12411045114186</v>
+        <v>27.63942396532763</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>10.22431957772466</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.297575039098262</v>
+        <v>5.02181205900341</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>10.92783397244398</v>
       </c>
       <c r="L4">
-        <v>6.644256718365499</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>12.87204067172006</v>
       </c>
       <c r="O4">
-        <v>28.84126230633299</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.13053399205497</v>
+        <v>12.08324812490813</v>
       </c>
       <c r="C5">
-        <v>11.84017705842239</v>
+        <v>6.758594132308346</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6.486646039435779</v>
+        <v>19.3019990115778</v>
       </c>
       <c r="F5">
-        <v>36.97115096467791</v>
+        <v>34.22288693822614</v>
       </c>
       <c r="G5">
-        <v>2.127109755712991</v>
+        <v>27.52882181568379</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>10.23991551303601</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.320327960603136</v>
+        <v>5.035692019868652</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>10.71205827835112</v>
       </c>
       <c r="L5">
-        <v>6.602881802786867</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>12.93564302476721</v>
       </c>
       <c r="O5">
-        <v>28.6172971207402</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.06252788595877</v>
+        <v>12.03918489732442</v>
       </c>
       <c r="C6">
-        <v>11.80008754058713</v>
+        <v>6.73743804950769</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6.486355908018945</v>
+        <v>19.24220341542161</v>
       </c>
       <c r="F6">
-        <v>36.91825048780527</v>
+        <v>34.1536447484437</v>
       </c>
       <c r="G6">
-        <v>2.127610329765674</v>
+        <v>27.5109488667941</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>10.24262029765312</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.324130631864324</v>
+        <v>5.038028519027254</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>10.6758257930832</v>
       </c>
       <c r="L6">
-        <v>6.596036434014213</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>12.94624954022389</v>
       </c>
       <c r="O6">
-        <v>28.5803949863739</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.53149049437544</v>
+        <v>12.3420238714354</v>
       </c>
       <c r="C7">
-        <v>12.07602202276246</v>
+        <v>6.882999318460382</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>6.488494952693504</v>
+        <v>19.65452813972271</v>
       </c>
       <c r="F7">
-        <v>37.28702908440658</v>
+        <v>34.63420036665357</v>
       </c>
       <c r="G7">
-        <v>2.124150732206584</v>
+        <v>27.6378991866385</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>10.22452213475219</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.297880247170997</v>
+        <v>5.021997113142938</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>10.92495095648126</v>
       </c>
       <c r="L7">
-        <v>6.643697080637359</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>12.87289541513633</v>
       </c>
       <c r="O7">
-        <v>28.83822260413027</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.52343203447399</v>
+        <v>13.60444198562652</v>
       </c>
       <c r="C8">
-        <v>13.23651719242693</v>
+        <v>7.49346075537991</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>6.501161831369104</v>
+        <v>21.40497496408467</v>
       </c>
       <c r="F8">
-        <v>38.95241444473313</v>
+        <v>36.74943058210108</v>
       </c>
       <c r="G8">
-        <v>2.109233551443414</v>
+        <v>28.27116307220253</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>10.16204688664516</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.185604327306686</v>
+        <v>4.955957378955051</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>11.96585983859147</v>
       </c>
       <c r="L8">
-        <v>6.857330711309589</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>12.555542392213</v>
       </c>
       <c r="O8">
-        <v>30.01750684595109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.29030517799253</v>
+        <v>15.81915538099885</v>
       </c>
       <c r="C9">
-        <v>15.31350678285744</v>
+        <v>8.576197572289548</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>6.539055881347269</v>
+        <v>24.57885969221086</v>
       </c>
       <c r="F9">
-        <v>42.34487518647303</v>
+        <v>40.84776290015166</v>
       </c>
       <c r="G9">
-        <v>2.081018891360843</v>
+        <v>29.78722622454648</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>10.10868314168577</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.978220249387346</v>
+        <v>4.844328584659857</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>13.79941590554841</v>
       </c>
       <c r="L9">
-        <v>7.285554376013737</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>11.95334919515042</v>
       </c>
       <c r="O9">
-        <v>32.47890302906936</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.94481620522859</v>
+        <v>17.29207330295054</v>
       </c>
       <c r="C10">
-        <v>16.72646521713741</v>
+        <v>9.302988464566347</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>6.576535812594406</v>
+        <v>26.75124863536028</v>
       </c>
       <c r="F10">
-        <v>44.91037312900914</v>
+        <v>43.80922546891892</v>
       </c>
       <c r="G10">
-        <v>2.060685818970143</v>
+        <v>31.07647230270306</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>10.11814835979856</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.833787016059548</v>
+        <v>4.77426437690107</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>15.02286772341648</v>
       </c>
       <c r="L10">
-        <v>7.603888656794866</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>11.52043986106224</v>
       </c>
       <c r="O10">
-        <v>34.38068463173411</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.10733909685172</v>
+        <v>17.92976362304487</v>
       </c>
       <c r="C11">
-        <v>17.34696083160723</v>
+        <v>9.619088087105689</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>6.596143295764613</v>
+        <v>27.76690097215271</v>
       </c>
       <c r="F11">
-        <v>46.09390231542167</v>
+        <v>45.14335869452803</v>
       </c>
       <c r="G11">
-        <v>2.051460604734027</v>
+        <v>31.70245338743595</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>10.13451362563872</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.769884285814112</v>
+        <v>4.74525561852291</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>15.55337414883158</v>
       </c>
       <c r="L11">
-        <v>7.749219762487194</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>11.32489978064308</v>
       </c>
       <c r="O11">
-        <v>35.26771812661205</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.54141005629641</v>
+        <v>18.16668534264128</v>
       </c>
       <c r="C12">
-        <v>17.57894649144447</v>
+        <v>9.736738573162837</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>6.603983288228036</v>
+        <v>28.14532201820821</v>
       </c>
       <c r="F12">
-        <v>46.54460216449915</v>
+        <v>45.6465991126019</v>
       </c>
       <c r="G12">
-        <v>2.047964843593598</v>
+        <v>31.94527582198085</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>10.1425738566691</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.745957024980284</v>
+        <v>4.734708546813636</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>15.75058963393501</v>
       </c>
       <c r="L12">
-        <v>7.804312070893261</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>11.25099406405361</v>
       </c>
       <c r="O12">
-        <v>35.60698235943823</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.44819296151411</v>
+        <v>18.11586116372196</v>
       </c>
       <c r="C13">
-        <v>17.52911302125688</v>
+        <v>9.7114909036315</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>6.60227550040028</v>
+        <v>28.06409426129052</v>
       </c>
       <c r="F13">
-        <v>46.44742008476425</v>
+        <v>45.53830528966253</v>
       </c>
       <c r="G13">
-        <v>2.048717926384646</v>
+        <v>31.89272114808078</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>10.14075297744312</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.751097870596622</v>
+        <v>4.736960122863032</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>15.70827804141686</v>
       </c>
       <c r="L13">
-        <v>7.792444520025459</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>11.26690570476068</v>
       </c>
       <c r="O13">
-        <v>35.5337618019697</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.14317161241621</v>
+        <v>17.94934610221483</v>
       </c>
       <c r="C14">
-        <v>17.36610482913305</v>
+        <v>9.628808094529981</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>6.596779676848086</v>
+        <v>27.79815674823006</v>
       </c>
       <c r="F14">
-        <v>46.13092983796827</v>
+        <v>45.18480021910914</v>
       </c>
       <c r="G14">
-        <v>2.051173090549395</v>
+        <v>31.72231418795328</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>10.13513865162327</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.767910249301023</v>
+        <v>4.744378967791332</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>15.56967242749519</v>
       </c>
       <c r="L14">
-        <v>7.753751129010469</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>11.31881704254555</v>
       </c>
       <c r="O14">
-        <v>35.29556065220198</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.95554666632729</v>
+        <v>17.84676014441672</v>
       </c>
       <c r="C15">
-        <v>17.26587627262735</v>
+        <v>9.577896833115108</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>6.593468927914518</v>
+        <v>27.63446259158044</v>
       </c>
       <c r="F15">
-        <v>45.93740536925883</v>
+        <v>44.9680107886857</v>
       </c>
       <c r="G15">
-        <v>2.05267645192421</v>
+        <v>31.61869027053708</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>10.13194624878523</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.778244102245097</v>
+        <v>4.748981080323364</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>15.48429598904171</v>
       </c>
       <c r="L15">
-        <v>7.730057599122348</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>11.35063076534693</v>
       </c>
       <c r="O15">
-        <v>35.15010144570244</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.8679630155651</v>
+        <v>17.24975571333615</v>
       </c>
       <c r="C16">
-        <v>16.68548430822176</v>
+        <v>9.282041544451308</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>6.575309737465764</v>
+        <v>26.686262860384</v>
       </c>
       <c r="F16">
-        <v>44.8333690246246</v>
+        <v>43.72176445603449</v>
       </c>
       <c r="G16">
-        <v>2.061288714876206</v>
+        <v>31.03636604043908</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>10.11733243011745</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.8380003932991</v>
+        <v>4.776219958315897</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>14.98767953823074</v>
       </c>
       <c r="L16">
-        <v>7.594399817334817</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>11.53324194041481</v>
       </c>
       <c r="O16">
-        <v>34.32317209950929</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.18944714555605</v>
+        <v>16.87529282756941</v>
       </c>
       <c r="C17">
-        <v>16.32387548650244</v>
+        <v>9.096849915646995</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>6.564855834351897</v>
+        <v>26.13075668449432</v>
       </c>
       <c r="F17">
-        <v>44.16037520042505</v>
+        <v>42.95379891099071</v>
       </c>
       <c r="G17">
-        <v>2.066574371501908</v>
+        <v>30.68931429015577</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>10.11154626498723</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.875127480236064</v>
+        <v>4.793681263565732</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>14.67639737167724</v>
       </c>
       <c r="L17">
-        <v>7.511297202002734</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>11.64558407756732</v>
       </c>
       <c r="O17">
-        <v>33.82161473784429</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.79492218934668</v>
+        <v>16.65686105635815</v>
       </c>
       <c r="C18">
-        <v>16.11377686459666</v>
+        <v>8.988963043082183</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>6.55908048869492</v>
+        <v>25.80796260206821</v>
       </c>
       <c r="F18">
-        <v>43.77482222095654</v>
+        <v>42.51085704425965</v>
       </c>
       <c r="G18">
-        <v>2.069617234268107</v>
+        <v>30.49341136747223</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>10.10934530612231</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.896650493518596</v>
+        <v>4.803992365578077</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>14.49489972500706</v>
       </c>
       <c r="L18">
-        <v>7.46354814559653</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>11.7103352014185</v>
       </c>
       <c r="O18">
-        <v>33.53517651024774</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.66060203800189</v>
+        <v>16.58237709915527</v>
       </c>
       <c r="C19">
-        <v>16.0422724013223</v>
+        <v>8.952198119459389</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>6.557164532355821</v>
+        <v>25.69810497400205</v>
       </c>
       <c r="F19">
-        <v>43.64454124096357</v>
+        <v>42.36067769959361</v>
       </c>
       <c r="G19">
-        <v>2.070648124186909</v>
+        <v>30.42771659483693</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>10.10878982807013</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.903966454409214</v>
+        <v>4.807528778719652</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>14.43302384367729</v>
       </c>
       <c r="L19">
-        <v>7.447390235007799</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>11.73228371161424</v>
       </c>
       <c r="O19">
-        <v>33.43853935484326</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.26211509205536</v>
+        <v>16.91547010778691</v>
       </c>
       <c r="C20">
-        <v>16.36258633851592</v>
+        <v>9.116705366146945</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>6.565943777568497</v>
+        <v>26.19023051992265</v>
       </c>
       <c r="F20">
-        <v>44.23185685571146</v>
+        <v>43.03567821209337</v>
       </c>
       <c r="G20">
-        <v>2.066011465685801</v>
+        <v>30.72587365600745</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>10.11204464396606</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.871157725463762</v>
+        <v>4.791794579721617</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>14.70978763214962</v>
       </c>
       <c r="L20">
-        <v>7.520138649794124</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>11.63361151683234</v>
       </c>
       <c r="O20">
-        <v>33.87479350857165</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.23292787544543</v>
+        <v>17.99837853254442</v>
       </c>
       <c r="C21">
-        <v>17.4140633156755</v>
+        <v>9.653149323151174</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>6.598382249402111</v>
+        <v>27.8764353601647</v>
       </c>
       <c r="F21">
-        <v>46.22382046666532</v>
+        <v>45.28868690376306</v>
       </c>
       <c r="G21">
-        <v>2.050452064696836</v>
+        <v>31.77220926696941</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>10.13673610097628</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.762964559107542</v>
+        <v>4.742187765211821</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>15.61048342279812</v>
       </c>
       <c r="L21">
-        <v>7.765114813862881</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>11.30356609237576</v>
       </c>
       <c r="O21">
-        <v>35.36543267971128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.48530355597521</v>
+        <v>18.67960347222642</v>
       </c>
       <c r="C22">
-        <v>18.08400693874247</v>
+        <v>9.991822779561671</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>6.622030441704098</v>
+        <v>28.96658972077676</v>
       </c>
       <c r="F22">
-        <v>47.54054019002179</v>
+        <v>46.7497125296868</v>
       </c>
       <c r="G22">
-        <v>2.040265912192177</v>
+        <v>32.48977198217821</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>10.1637960006137</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.693845131666342</v>
+        <v>4.712333699678508</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>16.1777525951571</v>
       </c>
       <c r="L22">
-        <v>7.925560879895374</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>11.08865340156668</v>
       </c>
       <c r="O22">
-        <v>36.35942241459517</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.82002924155967</v>
+        <v>18.31841480111737</v>
       </c>
       <c r="C23">
-        <v>17.72794286583518</v>
+        <v>9.81214285376622</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>6.609167039711291</v>
+        <v>28.3879783656424</v>
       </c>
       <c r="F23">
-        <v>46.83634351911718</v>
+        <v>45.97099062235578</v>
       </c>
       <c r="G23">
-        <v>2.045706192477912</v>
+        <v>32.10367633461221</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>10.14831035364305</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.730584423668813</v>
+        <v>4.728023078734941</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>15.87692232783563</v>
       </c>
       <c r="L23">
-        <v>7.839899828045885</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>11.20330485767635</v>
       </c>
       <c r="O23">
-        <v>35.82700867954968</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.22927575792077</v>
+        <v>16.89731577195548</v>
       </c>
       <c r="C24">
-        <v>16.34509204616655</v>
+        <v>9.107733135745791</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>6.565451190709299</v>
+        <v>26.16335307555689</v>
       </c>
       <c r="F24">
-        <v>44.19953577309562</v>
+        <v>42.99866502083562</v>
       </c>
       <c r="G24">
-        <v>2.066265942300165</v>
+        <v>30.7093338930171</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>10.11181583058949</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.872951897557568</v>
+        <v>4.792646703067936</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>14.69469980396764</v>
       </c>
       <c r="L24">
-        <v>7.516141343495017</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>11.63902379589221</v>
       </c>
       <c r="O24">
-        <v>33.85074544036099</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.27095582086288</v>
+        <v>15.2474624143922</v>
       </c>
       <c r="C25">
-        <v>14.77214317071922</v>
+        <v>8.295456639288206</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>6.527249408154103</v>
+        <v>23.74852725432104</v>
       </c>
       <c r="F25">
-        <v>41.41421707667951</v>
+        <v>39.74668089209998</v>
       </c>
       <c r="G25">
-        <v>2.088563361528549</v>
+        <v>29.34679666806732</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>10.11506053405488</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.032947785263437</v>
+        <v>4.872512252267429</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>13.3253463143431</v>
       </c>
       <c r="L25">
-        <v>7.168933864216174</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>12.11437479160447</v>
       </c>
       <c r="O25">
-        <v>31.79696913803314</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_37/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_37/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.92866744868868</v>
+        <v>11.22947716699574</v>
       </c>
       <c r="C2">
-        <v>7.65110500294629</v>
+        <v>4.562841544432813</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>21.86201246443954</v>
+        <v>21.262535195682</v>
       </c>
       <c r="F2">
-        <v>37.3201002799781</v>
+        <v>42.88119202077788</v>
       </c>
       <c r="G2">
-        <v>28.46094249474973</v>
+        <v>35.55100753008026</v>
       </c>
       <c r="H2">
-        <v>10.14956691732372</v>
+        <v>15.96393164064879</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>4.939238747052511</v>
+        <v>8.496830299205076</v>
       </c>
       <c r="K2">
-        <v>12.23374815260075</v>
+        <v>10.57308380515595</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.47101348026299</v>
+        <v>19.18376405186429</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.96842070443525</v>
+        <v>10.96837659746983</v>
       </c>
       <c r="C3">
-        <v>7.185201665835497</v>
+        <v>4.322609844355632</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>20.51701159761423</v>
+        <v>20.97705558039033</v>
       </c>
       <c r="F3">
-        <v>35.66185558831202</v>
+        <v>42.67627314368968</v>
       </c>
       <c r="G3">
-        <v>27.93110549897341</v>
+        <v>35.59053336244161</v>
       </c>
       <c r="H3">
-        <v>10.19083613327014</v>
+        <v>16.01560357352362</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>4.989056164421484</v>
+        <v>8.521570939434906</v>
       </c>
       <c r="K3">
-        <v>11.44098279543722</v>
+        <v>10.39788207326725</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.71776544121016</v>
+        <v>19.25318451558792</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.34552676935366</v>
+        <v>10.80761167183282</v>
       </c>
       <c r="C4">
-        <v>6.884685150665296</v>
+        <v>4.167219976916611</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>19.65931579464649</v>
+        <v>20.80503561848765</v>
       </c>
       <c r="F4">
-        <v>34.63982223036503</v>
+        <v>42.56207973144527</v>
       </c>
       <c r="G4">
-        <v>27.63942396532763</v>
+        <v>35.6266108291538</v>
       </c>
       <c r="H4">
-        <v>10.22431957772466</v>
+        <v>16.050222720301</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.02181205900341</v>
+        <v>8.537764533557279</v>
       </c>
       <c r="K4">
-        <v>10.92783397244398</v>
+        <v>10.29118706943581</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.87204067172006</v>
+        <v>19.29772476309124</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.08324812490813</v>
+        <v>10.74208870475931</v>
       </c>
       <c r="C5">
-        <v>6.758594132308346</v>
+        <v>4.10194538026719</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>19.3019990115778</v>
+        <v>20.73583965195489</v>
       </c>
       <c r="F5">
-        <v>34.22288693822614</v>
+        <v>42.51850253178578</v>
       </c>
       <c r="G5">
-        <v>27.52882181568379</v>
+        <v>35.6442687742647</v>
       </c>
       <c r="H5">
-        <v>10.23991551303601</v>
+        <v>16.0650564387273</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.035692019868652</v>
+        <v>8.544616017188014</v>
       </c>
       <c r="K5">
-        <v>10.71205827835112</v>
+        <v>10.24798702461825</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.93564302476721</v>
+        <v>19.31635858341925</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.03918489732442</v>
+        <v>10.73121112904774</v>
       </c>
       <c r="C6">
-        <v>6.73743804950769</v>
+        <v>4.0909897337304</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>19.24220341542161</v>
+        <v>20.7244066603536</v>
       </c>
       <c r="F6">
-        <v>34.1536447484437</v>
+        <v>42.51144609323688</v>
       </c>
       <c r="G6">
-        <v>27.5109488667941</v>
+        <v>35.6473789795797</v>
       </c>
       <c r="H6">
-        <v>10.24262029765312</v>
+        <v>16.06756338859538</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.038028519027254</v>
+        <v>8.545768958320313</v>
       </c>
       <c r="K6">
-        <v>10.6758257930832</v>
+        <v>10.24083223495622</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.94624954022389</v>
+        <v>19.31948195163963</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.3420238714354</v>
+        <v>10.80672790841547</v>
       </c>
       <c r="C7">
-        <v>6.882999318460382</v>
+        <v>4.166347518182844</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>19.65452813972271</v>
+        <v>20.80409865145973</v>
       </c>
       <c r="F7">
-        <v>34.63420036665357</v>
+        <v>42.56148001815146</v>
       </c>
       <c r="G7">
-        <v>27.6378991866385</v>
+        <v>35.62683702028181</v>
       </c>
       <c r="H7">
-        <v>10.22452213475219</v>
+        <v>16.05041983451593</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.021997113142938</v>
+        <v>8.537855912428927</v>
       </c>
       <c r="K7">
-        <v>10.92495095648126</v>
+        <v>10.29060325224972</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.87289541513633</v>
+        <v>19.29797410636416</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.60444198562652</v>
+        <v>11.13960327838751</v>
       </c>
       <c r="C8">
-        <v>7.49346075537991</v>
+        <v>4.481663246926431</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>21.40497496408467</v>
+        <v>21.16347394723262</v>
       </c>
       <c r="F8">
-        <v>36.74943058210108</v>
+        <v>42.80814427451651</v>
       </c>
       <c r="G8">
-        <v>28.27116307220253</v>
+        <v>35.56217778356081</v>
       </c>
       <c r="H8">
-        <v>10.16204688664516</v>
+        <v>15.98114710882555</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>4.955957378955051</v>
+        <v>8.505152942042765</v>
       </c>
       <c r="K8">
-        <v>11.96585983859147</v>
+        <v>10.51252635343783</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.555542392213</v>
+        <v>19.2073035494454</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.81915538099885</v>
+        <v>11.78448862625567</v>
       </c>
       <c r="C9">
-        <v>8.576197572289548</v>
+        <v>5.036358224527242</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>24.57885969221086</v>
+        <v>21.89043410500549</v>
       </c>
       <c r="F9">
-        <v>40.84776290015166</v>
+        <v>43.38242029389529</v>
       </c>
       <c r="G9">
-        <v>29.78722622454648</v>
+        <v>35.52958299746476</v>
       </c>
       <c r="H9">
-        <v>10.10868314168577</v>
+        <v>15.86830554892983</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>4.844328584659857</v>
+        <v>8.448964652320399</v>
       </c>
       <c r="K9">
-        <v>13.79941590554841</v>
+        <v>10.95217131393157</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.95334919515042</v>
+        <v>19.04462715188334</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.29207330295054</v>
+        <v>12.24800264078519</v>
       </c>
       <c r="C10">
-        <v>9.302988464566347</v>
+        <v>5.404031519395515</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>26.75124863536028</v>
+        <v>22.43310490719471</v>
       </c>
       <c r="F10">
-        <v>43.80922546891892</v>
+        <v>43.85699765447095</v>
       </c>
       <c r="G10">
-        <v>31.07647230270306</v>
+        <v>35.56362911464642</v>
       </c>
       <c r="H10">
-        <v>10.11814835979856</v>
+        <v>15.79949492768069</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>4.77426437690107</v>
+        <v>8.412505353635343</v>
       </c>
       <c r="K10">
-        <v>15.02286772341648</v>
+        <v>11.27457271568616</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.52043986106224</v>
+        <v>18.93422761889357</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.92976362304487</v>
+        <v>12.45557844771265</v>
       </c>
       <c r="C11">
-        <v>9.619088087105689</v>
+        <v>5.562495889572937</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>27.76690097215271</v>
+        <v>22.6807908816247</v>
       </c>
       <c r="F11">
-        <v>45.14335869452803</v>
+        <v>44.08370166143813</v>
       </c>
       <c r="G11">
-        <v>31.70245338743595</v>
+        <v>35.59178739068661</v>
       </c>
       <c r="H11">
-        <v>10.13451362563872</v>
+        <v>15.77126674213665</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>4.74525561852291</v>
+        <v>8.3969621751798</v>
       </c>
       <c r="K11">
-        <v>15.55337414883158</v>
+        <v>11.4204337569454</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.32489978064308</v>
+        <v>18.8859618473296</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.16668534264128</v>
+        <v>12.53363023181476</v>
       </c>
       <c r="C12">
-        <v>9.736738573162837</v>
+        <v>5.621229661519625</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>28.14532201820821</v>
+        <v>22.77461518894668</v>
       </c>
       <c r="F12">
-        <v>45.6465991126019</v>
+        <v>44.17104570828995</v>
       </c>
       <c r="G12">
-        <v>31.94527582198085</v>
+        <v>35.6042748372781</v>
       </c>
       <c r="H12">
-        <v>10.1425738566691</v>
+        <v>15.76102077116995</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>4.734708546813636</v>
+        <v>8.391225985607495</v>
       </c>
       <c r="K12">
-        <v>15.75058963393501</v>
+        <v>11.47549854712056</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.25099406405361</v>
+        <v>18.86796440845463</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.11586116372196</v>
+        <v>12.51684619258652</v>
       </c>
       <c r="C13">
-        <v>9.7114909036315</v>
+        <v>5.608637037318466</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>28.06409426129052</v>
+        <v>22.75440843404624</v>
       </c>
       <c r="F13">
-        <v>45.53830528966253</v>
+        <v>44.15216903855445</v>
       </c>
       <c r="G13">
-        <v>31.89272114808078</v>
+        <v>35.60150428066969</v>
       </c>
       <c r="H13">
-        <v>10.14075297744312</v>
+        <v>15.76320768093192</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>4.736960122863032</v>
+        <v>8.392454723129882</v>
       </c>
       <c r="K13">
-        <v>15.70827804141686</v>
+        <v>11.4636477452781</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.26690570476068</v>
+        <v>18.87182805931528</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.94934610221483</v>
+        <v>12.46201133496878</v>
       </c>
       <c r="C14">
-        <v>9.628808094529981</v>
+        <v>5.567353512615743</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>27.79815674823006</v>
+        <v>22.68850973497625</v>
       </c>
       <c r="F14">
-        <v>45.18480021910914</v>
+        <v>44.09085787366773</v>
       </c>
       <c r="G14">
-        <v>31.72231418795328</v>
+        <v>35.59277816813474</v>
       </c>
       <c r="H14">
-        <v>10.13513865162327</v>
+        <v>15.77041490511878</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>4.744378967791332</v>
+        <v>8.396487256891943</v>
       </c>
       <c r="K14">
-        <v>15.56967242749519</v>
+        <v>11.42496767339337</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.31881704254555</v>
+        <v>18.88447558859183</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.84676014441672</v>
+        <v>12.4283491205249</v>
       </c>
       <c r="C15">
-        <v>9.577896833115108</v>
+        <v>5.541900124074518</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>27.63446259158044</v>
+        <v>22.64814636176577</v>
       </c>
       <c r="F15">
-        <v>44.9680107886857</v>
+        <v>44.05349604837345</v>
       </c>
       <c r="G15">
-        <v>31.61869027053708</v>
+        <v>35.58767081382379</v>
       </c>
       <c r="H15">
-        <v>10.13194624878523</v>
+        <v>15.77488732628448</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>4.748981080323364</v>
+        <v>8.398976786175846</v>
       </c>
       <c r="K15">
-        <v>15.48429598904171</v>
+        <v>11.40125134666777</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.35063076534693</v>
+        <v>18.89225895602722</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.24975571333615</v>
+        <v>12.23436401897217</v>
       </c>
       <c r="C16">
-        <v>9.282041544451308</v>
+        <v>5.393497757593669</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>26.686262860384</v>
+        <v>22.41692709111976</v>
       </c>
       <c r="F16">
-        <v>43.72176445603449</v>
+        <v>43.84239467722432</v>
       </c>
       <c r="G16">
-        <v>31.03636604043908</v>
+        <v>35.56204413551568</v>
       </c>
       <c r="H16">
-        <v>10.11733243011745</v>
+        <v>15.80140168308372</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>4.776219958315897</v>
+        <v>8.413542093086694</v>
       </c>
       <c r="K16">
-        <v>14.98767953823074</v>
+        <v>11.2650195300109</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.53324194041481</v>
+        <v>18.93742112738454</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.87529282756941</v>
+        <v>12.11446098693924</v>
       </c>
       <c r="C17">
-        <v>9.096849915646995</v>
+        <v>5.300198659474701</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>26.13075668449432</v>
+        <v>22.27522949932229</v>
       </c>
       <c r="F17">
-        <v>42.95379891099071</v>
+        <v>43.71562003745429</v>
       </c>
       <c r="G17">
-        <v>30.68931429015577</v>
+        <v>35.54957073786782</v>
       </c>
       <c r="H17">
-        <v>10.11154626498723</v>
+        <v>15.81845572127088</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>4.793681263565732</v>
+        <v>8.422744251423836</v>
       </c>
       <c r="K17">
-        <v>14.67639737167724</v>
+        <v>11.18120112296359</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.64558407756732</v>
+        <v>18.96562648605178</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.65686105635815</v>
+        <v>12.04519177441898</v>
       </c>
       <c r="C18">
-        <v>8.988963043082183</v>
+        <v>5.24570829297206</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>25.80796260206821</v>
+        <v>22.19381130558628</v>
       </c>
       <c r="F18">
-        <v>42.51085704425965</v>
+        <v>43.64372446416675</v>
       </c>
       <c r="G18">
-        <v>30.49341136747223</v>
+        <v>35.54358897334017</v>
       </c>
       <c r="H18">
-        <v>10.10934530612231</v>
+        <v>15.82855402152855</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>4.803992365578077</v>
+        <v>8.428135211577992</v>
       </c>
       <c r="K18">
-        <v>14.49489972500706</v>
+        <v>11.13291872060053</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.7103352014185</v>
+        <v>18.98203361151765</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.58237709915527</v>
+        <v>12.02168873910267</v>
       </c>
       <c r="C19">
-        <v>8.952198119459389</v>
+        <v>5.227117034955365</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>25.69810497400205</v>
+        <v>22.16626136544727</v>
       </c>
       <c r="F19">
-        <v>42.36067769959361</v>
+        <v>43.61955911405613</v>
       </c>
       <c r="G19">
-        <v>30.42771659483693</v>
+        <v>35.54176836760097</v>
       </c>
       <c r="H19">
-        <v>10.10878982807013</v>
+        <v>15.8320227724244</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>4.807528778719652</v>
+        <v>8.429977357230364</v>
       </c>
       <c r="K19">
-        <v>14.43302384367729</v>
+        <v>11.1165604121013</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.73228371161424</v>
+        <v>18.98762045419999</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.91547010778691</v>
+        <v>12.12725695539934</v>
       </c>
       <c r="C20">
-        <v>9.116705366146945</v>
+        <v>5.310216191976208</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>26.19023051992265</v>
+        <v>22.29030554823512</v>
       </c>
       <c r="F20">
-        <v>43.03567821209337</v>
+        <v>43.72901007594027</v>
       </c>
       <c r="G20">
-        <v>30.72587365600745</v>
+        <v>35.55077509674965</v>
       </c>
       <c r="H20">
-        <v>10.11204464396606</v>
+        <v>15.81661034151721</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>4.791794579721617</v>
+        <v>8.42175451225717</v>
       </c>
       <c r="K20">
-        <v>14.70978763214962</v>
+        <v>11.19013161694332</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.63361151683234</v>
+        <v>18.96260492916864</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.99837853254442</v>
+        <v>12.47813327840403</v>
       </c>
       <c r="C21">
-        <v>9.653149323151174</v>
+        <v>5.579514099218754</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>27.8764353601647</v>
+        <v>22.70786562406019</v>
       </c>
       <c r="F21">
-        <v>45.28868690376306</v>
+        <v>44.10882633092675</v>
       </c>
       <c r="G21">
-        <v>31.77220926696941</v>
+        <v>35.59529171335011</v>
       </c>
       <c r="H21">
-        <v>10.13673610097628</v>
+        <v>15.76828592321843</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>4.742187765211821</v>
+        <v>8.395298743495401</v>
       </c>
       <c r="K21">
-        <v>15.61048342279812</v>
+        <v>11.43633397392154</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.30356609237576</v>
+        <v>18.88075312145884</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.67960347222642</v>
+        <v>12.70419641479721</v>
       </c>
       <c r="C22">
-        <v>9.991822779561671</v>
+        <v>5.748091901632868</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>28.96658972077676</v>
+        <v>22.98090705261716</v>
       </c>
       <c r="F22">
-        <v>46.7497125296868</v>
+        <v>44.36574940478897</v>
       </c>
       <c r="G22">
-        <v>32.48977198217821</v>
+        <v>35.63502012712112</v>
       </c>
       <c r="H22">
-        <v>10.1637960006137</v>
+        <v>15.73928839835076</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>4.712333699678508</v>
+        <v>8.378880695943248</v>
       </c>
       <c r="K22">
-        <v>16.1777525951571</v>
+        <v>11.59622919884312</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.08865340156668</v>
+        <v>18.82888823450064</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.31841480111737</v>
+        <v>12.58386535428238</v>
       </c>
       <c r="C23">
-        <v>9.81214285376622</v>
+        <v>5.658800386730934</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>28.3879783656424</v>
+        <v>22.83519500600293</v>
       </c>
       <c r="F23">
-        <v>45.97099062235578</v>
+        <v>44.22784982456472</v>
       </c>
       <c r="G23">
-        <v>32.10367633461221</v>
+        <v>35.61284305620814</v>
       </c>
       <c r="H23">
-        <v>10.14831035364305</v>
+        <v>15.75452792031342</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>4.728023078734941</v>
+        <v>8.387563566902804</v>
       </c>
       <c r="K23">
-        <v>15.87692232783563</v>
+        <v>11.51100010438656</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.20330485767635</v>
+        <v>18.856420829331</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.89731577195548</v>
+        <v>12.12147293637296</v>
       </c>
       <c r="C24">
-        <v>9.107733135745791</v>
+        <v>5.305689917038553</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>26.16335307555689</v>
+        <v>22.28348951768141</v>
       </c>
       <c r="F24">
-        <v>42.99866502083562</v>
+        <v>43.72295335471283</v>
       </c>
       <c r="G24">
-        <v>30.7093338930171</v>
+        <v>35.55022690140844</v>
       </c>
       <c r="H24">
-        <v>10.11181583058949</v>
+        <v>15.81744372287414</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>4.792646703067936</v>
+        <v>8.42220166021302</v>
       </c>
       <c r="K24">
-        <v>14.69469980396764</v>
+        <v>11.18609442946132</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.63902379589221</v>
+        <v>18.96397037839933</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.2474624143922</v>
+        <v>11.61145898277239</v>
       </c>
       <c r="C25">
-        <v>8.295456639288206</v>
+        <v>4.893238164320364</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>23.74852725432104</v>
+        <v>21.69190660494347</v>
       </c>
       <c r="F25">
-        <v>39.74668089209998</v>
+        <v>43.21761504948566</v>
       </c>
       <c r="G25">
-        <v>29.34679666806732</v>
+        <v>35.528249153894</v>
       </c>
       <c r="H25">
-        <v>10.11506053405488</v>
+        <v>15.89636223146252</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>4.872512252267429</v>
+        <v>8.4633168605311</v>
       </c>
       <c r="K25">
-        <v>13.3253463143431</v>
+        <v>10.83310660632164</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>12.11437479160447</v>
+        <v>19.08702660574395</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_37/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_37/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.22947716699574</v>
+        <v>13.92866744868873</v>
       </c>
       <c r="C2">
-        <v>4.562841544432813</v>
+        <v>7.65110500294618</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>21.262535195682</v>
+        <v>21.86201246443953</v>
       </c>
       <c r="F2">
-        <v>42.88119202077788</v>
+        <v>37.32010027997813</v>
       </c>
       <c r="G2">
-        <v>35.55100753008026</v>
+        <v>28.46094249474989</v>
       </c>
       <c r="H2">
-        <v>15.96393164064879</v>
+        <v>10.14956691732372</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>8.496830299205076</v>
+        <v>4.939238747052572</v>
       </c>
       <c r="K2">
-        <v>10.57308380515595</v>
+        <v>12.23374815260074</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>19.18376405186429</v>
+        <v>12.47101348026302</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.96837659746983</v>
+        <v>12.96842070443529</v>
       </c>
       <c r="C3">
-        <v>4.322609844355632</v>
+        <v>7.18520166583551</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>20.97705558039033</v>
+        <v>20.51701159761424</v>
       </c>
       <c r="F3">
-        <v>42.67627314368968</v>
+        <v>35.66185558831204</v>
       </c>
       <c r="G3">
-        <v>35.59053336244161</v>
+        <v>27.93110549897323</v>
       </c>
       <c r="H3">
-        <v>16.01560357352362</v>
+        <v>10.19083613327014</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>8.521570939434906</v>
+        <v>4.989056164421422</v>
       </c>
       <c r="K3">
-        <v>10.39788207326725</v>
+        <v>11.44098279543725</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>19.25318451558792</v>
+        <v>12.71776544121016</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.80761167183282</v>
+        <v>12.34552676935368</v>
       </c>
       <c r="C4">
-        <v>4.167219976916611</v>
+        <v>6.884685150665295</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>20.80503561848765</v>
+        <v>19.65931579464648</v>
       </c>
       <c r="F4">
-        <v>42.56207973144527</v>
+        <v>34.63982223036502</v>
       </c>
       <c r="G4">
-        <v>35.6266108291538</v>
+        <v>27.63942396532783</v>
       </c>
       <c r="H4">
-        <v>16.050222720301</v>
+        <v>10.2243195777247</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>8.537764533557279</v>
+        <v>5.02181205900341</v>
       </c>
       <c r="K4">
-        <v>10.29118706943581</v>
+        <v>10.92783397244399</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>19.29772476309124</v>
+        <v>12.87204067172016</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.74208870475931</v>
+        <v>12.08324812490816</v>
       </c>
       <c r="C5">
-        <v>4.10194538026719</v>
+        <v>6.758594132308502</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>20.73583965195489</v>
+        <v>19.30199901157777</v>
       </c>
       <c r="F5">
-        <v>42.51850253178578</v>
+        <v>34.22288693822613</v>
       </c>
       <c r="G5">
-        <v>35.6442687742647</v>
+        <v>27.52882181568368</v>
       </c>
       <c r="H5">
-        <v>16.0650564387273</v>
+        <v>10.23991551303597</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>8.544616017188014</v>
+        <v>5.035692019868653</v>
       </c>
       <c r="K5">
-        <v>10.24798702461825</v>
+        <v>10.71205827835115</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>19.31635858341925</v>
+        <v>12.93564302476715</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.73121112904774</v>
+        <v>12.03918489732443</v>
       </c>
       <c r="C6">
-        <v>4.0909897337304</v>
+        <v>6.737438049507705</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>20.7244066603536</v>
+        <v>19.24220341542165</v>
       </c>
       <c r="F6">
-        <v>42.51144609323688</v>
+        <v>34.15364474844367</v>
       </c>
       <c r="G6">
-        <v>35.6473789795797</v>
+        <v>27.51094886679388</v>
       </c>
       <c r="H6">
-        <v>16.06756338859538</v>
+        <v>10.242620297653</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>8.545768958320313</v>
+        <v>5.038028519027224</v>
       </c>
       <c r="K6">
-        <v>10.24083223495622</v>
+        <v>10.67582579308323</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>19.31948195163963</v>
+        <v>12.94624954022382</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.80672790841547</v>
+        <v>12.34202387143541</v>
       </c>
       <c r="C7">
-        <v>4.166347518182844</v>
+        <v>6.882999318460397</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>20.80409865145973</v>
+        <v>19.65452813972275</v>
       </c>
       <c r="F7">
-        <v>42.56148001815146</v>
+        <v>34.63420036665359</v>
       </c>
       <c r="G7">
-        <v>35.62683702028181</v>
+        <v>27.63789918663846</v>
       </c>
       <c r="H7">
-        <v>16.05041983451593</v>
+        <v>10.22452213475217</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>8.537855912428927</v>
+        <v>5.021997113142908</v>
       </c>
       <c r="K7">
-        <v>10.29060325224972</v>
+        <v>10.92495095648128</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>19.29797410636416</v>
+        <v>12.87289541513637</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.13960327838751</v>
+        <v>13.60444198562649</v>
       </c>
       <c r="C8">
-        <v>4.481663246926431</v>
+        <v>7.493460755380078</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>21.16347394723262</v>
+        <v>21.40497496408468</v>
       </c>
       <c r="F8">
-        <v>42.80814427451651</v>
+        <v>36.749430582101</v>
       </c>
       <c r="G8">
-        <v>35.56217778356081</v>
+        <v>28.27116307220229</v>
       </c>
       <c r="H8">
-        <v>15.98114710882555</v>
+        <v>10.16204688664516</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>8.505152942042765</v>
+        <v>4.955957378955019</v>
       </c>
       <c r="K8">
-        <v>10.51252635343783</v>
+        <v>11.96585983859154</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>19.2073035494454</v>
+        <v>12.555542392213</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.78448862625567</v>
+        <v>15.81915538099882</v>
       </c>
       <c r="C9">
-        <v>5.036358224527242</v>
+        <v>8.57619757228959</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>21.89043410500549</v>
+        <v>24.57885969221086</v>
       </c>
       <c r="F9">
-        <v>43.38242029389529</v>
+        <v>40.84776290015166</v>
       </c>
       <c r="G9">
-        <v>35.52958299746476</v>
+        <v>29.78722622454656</v>
       </c>
       <c r="H9">
-        <v>15.86830554892983</v>
+        <v>10.1086831416858</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>8.448964652320399</v>
+        <v>4.844328584659825</v>
       </c>
       <c r="K9">
-        <v>10.95217131393157</v>
+        <v>13.7994159055484</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>19.04462715188334</v>
+        <v>11.95334919515049</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12.24800264078519</v>
+        <v>17.29207330295051</v>
       </c>
       <c r="C10">
-        <v>5.404031519395515</v>
+        <v>9.302988464566404</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>22.43310490719471</v>
+        <v>26.75124863536031</v>
       </c>
       <c r="F10">
-        <v>43.85699765447095</v>
+        <v>43.80922546891892</v>
       </c>
       <c r="G10">
-        <v>35.56362911464642</v>
+        <v>31.07647230270313</v>
       </c>
       <c r="H10">
-        <v>15.79949492768069</v>
+        <v>10.11814835979865</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>8.412505353635343</v>
+        <v>4.774264376901076</v>
       </c>
       <c r="K10">
-        <v>11.27457271568616</v>
+        <v>15.02286772341647</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>18.93422761889357</v>
+        <v>11.52043986106231</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12.45557844771265</v>
+        <v>17.92976362304496</v>
       </c>
       <c r="C11">
-        <v>5.562495889572937</v>
+        <v>9.619088087105542</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>22.6807908816247</v>
+        <v>27.76690097215268</v>
       </c>
       <c r="F11">
-        <v>44.08370166143813</v>
+        <v>45.14335869452803</v>
       </c>
       <c r="G11">
-        <v>35.59178739068661</v>
+        <v>31.70245338743591</v>
       </c>
       <c r="H11">
-        <v>15.77126674213665</v>
+        <v>10.13451362563862</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>8.3969621751798</v>
+        <v>4.74525561852283</v>
       </c>
       <c r="K11">
-        <v>11.4204337569454</v>
+        <v>15.55337414883162</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>18.8859618473296</v>
+        <v>11.32489978064302</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>12.53363023181476</v>
+        <v>18.16668534264129</v>
       </c>
       <c r="C12">
-        <v>5.621229661519625</v>
+        <v>9.736738573162784</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>22.77461518894668</v>
+        <v>28.14532201820821</v>
       </c>
       <c r="F12">
-        <v>44.17104570828995</v>
+        <v>45.64659911260186</v>
       </c>
       <c r="G12">
-        <v>35.6042748372781</v>
+        <v>31.94527582198082</v>
       </c>
       <c r="H12">
-        <v>15.76102077116995</v>
+        <v>10.14257385666906</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>8.391225985607495</v>
+        <v>4.734708546813588</v>
       </c>
       <c r="K12">
-        <v>11.47549854712056</v>
+        <v>15.75058963393503</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>18.86796440845463</v>
+        <v>11.25099406405357</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>12.51684619258652</v>
+        <v>18.11586116372197</v>
       </c>
       <c r="C13">
-        <v>5.608637037318466</v>
+        <v>9.711490903631363</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>22.75440843404624</v>
+        <v>28.06409426129064</v>
       </c>
       <c r="F13">
-        <v>44.15216903855445</v>
+        <v>45.53830528966255</v>
       </c>
       <c r="G13">
-        <v>35.60150428066969</v>
+        <v>31.89272114808078</v>
       </c>
       <c r="H13">
-        <v>15.76320768093192</v>
+        <v>10.14075297744308</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>8.392454723129882</v>
+        <v>4.736960122863032</v>
       </c>
       <c r="K13">
-        <v>11.4636477452781</v>
+        <v>15.70827804141682</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>18.87182805931528</v>
+        <v>11.26690570476062</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12.46201133496878</v>
+        <v>17.94934610221478</v>
       </c>
       <c r="C14">
-        <v>5.567353512615743</v>
+        <v>9.628808094529836</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>22.68850973497625</v>
+        <v>27.7981567482301</v>
       </c>
       <c r="F14">
-        <v>44.09085787366773</v>
+        <v>45.18480021910913</v>
       </c>
       <c r="G14">
-        <v>35.59277816813474</v>
+        <v>31.72231418795327</v>
       </c>
       <c r="H14">
-        <v>15.77041490511878</v>
+        <v>10.1351386516234</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>8.396487256891943</v>
+        <v>4.744378967791386</v>
       </c>
       <c r="K14">
-        <v>11.42496767339337</v>
+        <v>15.56967242749512</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>18.88447558859183</v>
+        <v>11.31881704254558</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12.4283491205249</v>
+        <v>17.84676014441677</v>
       </c>
       <c r="C15">
-        <v>5.541900124074518</v>
+        <v>9.577896833115044</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>22.64814636176577</v>
+        <v>27.63446259158039</v>
       </c>
       <c r="F15">
-        <v>44.05349604837345</v>
+        <v>44.96801078868569</v>
       </c>
       <c r="G15">
-        <v>35.58767081382379</v>
+        <v>31.61869027053698</v>
       </c>
       <c r="H15">
-        <v>15.77488732628448</v>
+        <v>10.13194624878515</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>8.398976786175846</v>
+        <v>4.748981080323371</v>
       </c>
       <c r="K15">
-        <v>11.40125134666777</v>
+        <v>15.48429598904176</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>18.89225895602722</v>
+        <v>11.3506307653468</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>12.23436401897217</v>
+        <v>17.24975571333617</v>
       </c>
       <c r="C16">
-        <v>5.393497757593669</v>
+        <v>9.282041544451255</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>22.41692709111976</v>
+        <v>26.68626286038404</v>
       </c>
       <c r="F16">
-        <v>43.84239467722432</v>
+        <v>43.72176445603447</v>
       </c>
       <c r="G16">
-        <v>35.56204413551568</v>
+        <v>31.036366040439</v>
       </c>
       <c r="H16">
-        <v>15.80140168308372</v>
+        <v>10.11733243011741</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>8.413542093086694</v>
+        <v>4.776219958315838</v>
       </c>
       <c r="K16">
-        <v>11.2650195300109</v>
+        <v>14.98767953823078</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>18.93742112738454</v>
+        <v>11.53324194041474</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.11446098693924</v>
+        <v>16.87529282756936</v>
       </c>
       <c r="C17">
-        <v>5.300198659474701</v>
+        <v>9.096849915646906</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>22.27522949932229</v>
+        <v>26.13075668449427</v>
       </c>
       <c r="F17">
-        <v>43.71562003745429</v>
+        <v>42.95379891099073</v>
       </c>
       <c r="G17">
-        <v>35.54957073786782</v>
+        <v>30.68931429015592</v>
       </c>
       <c r="H17">
-        <v>15.81845572127088</v>
+        <v>10.11154626498727</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>8.422744251423836</v>
+        <v>4.793681263565676</v>
       </c>
       <c r="K17">
-        <v>11.18120112296359</v>
+        <v>14.67639737167719</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>18.96562648605178</v>
+        <v>11.64558407756735</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.04519177441898</v>
+        <v>16.65686105635812</v>
       </c>
       <c r="C18">
-        <v>5.24570829297206</v>
+        <v>8.988963043082288</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>22.19381130558628</v>
+        <v>25.80796260206826</v>
       </c>
       <c r="F18">
-        <v>43.64372446416675</v>
+        <v>42.51085704425967</v>
       </c>
       <c r="G18">
-        <v>35.54358897334017</v>
+        <v>30.4934113674723</v>
       </c>
       <c r="H18">
-        <v>15.82855402152855</v>
+        <v>10.1093453061224</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>8.428135211577992</v>
+        <v>4.803992365577969</v>
       </c>
       <c r="K18">
-        <v>11.13291872060053</v>
+        <v>14.49489972500702</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>18.98203361151765</v>
+        <v>11.71033520141857</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.02168873910267</v>
+        <v>16.58237709915521</v>
       </c>
       <c r="C19">
-        <v>5.227117034955365</v>
+        <v>8.952198119459373</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>22.16626136544727</v>
+        <v>25.69810497400202</v>
       </c>
       <c r="F19">
-        <v>43.61955911405613</v>
+        <v>42.36067769959362</v>
       </c>
       <c r="G19">
-        <v>35.54176836760097</v>
+        <v>30.42771659483697</v>
       </c>
       <c r="H19">
-        <v>15.8320227724244</v>
+        <v>10.10878982807013</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>8.429977357230364</v>
+        <v>4.807528778719653</v>
       </c>
       <c r="K19">
-        <v>11.1165604121013</v>
+        <v>14.43302384367723</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>18.98762045419999</v>
+        <v>11.73228371161424</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.12725695539934</v>
+        <v>16.91547010778685</v>
       </c>
       <c r="C20">
-        <v>5.310216191976208</v>
+        <v>9.116705366146885</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>22.29030554823512</v>
+        <v>26.19023051992263</v>
       </c>
       <c r="F20">
-        <v>43.72901007594027</v>
+        <v>43.0356782120934</v>
       </c>
       <c r="G20">
-        <v>35.55077509674965</v>
+        <v>30.72587365600764</v>
       </c>
       <c r="H20">
-        <v>15.81661034151721</v>
+        <v>10.1120446439662</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>8.42175451225717</v>
+        <v>4.791794579721728</v>
       </c>
       <c r="K20">
-        <v>11.19013161694332</v>
+        <v>14.70978763214952</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>18.96260492916864</v>
+        <v>11.63361151683243</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>12.47813327840403</v>
+        <v>17.99837853254437</v>
       </c>
       <c r="C21">
-        <v>5.579514099218754</v>
+        <v>9.653149323151187</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>22.70786562406019</v>
+        <v>27.87643536016465</v>
       </c>
       <c r="F21">
-        <v>44.10882633092675</v>
+        <v>45.28868690376301</v>
       </c>
       <c r="G21">
-        <v>35.59529171335011</v>
+        <v>31.77220926696943</v>
       </c>
       <c r="H21">
-        <v>15.76828592321843</v>
+        <v>10.1367361009763</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>8.395298743495401</v>
+        <v>4.742187765211847</v>
       </c>
       <c r="K21">
-        <v>11.43633397392154</v>
+        <v>15.61048342279805</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>18.88075312145884</v>
+        <v>11.30356609237582</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>12.70419641479721</v>
+        <v>18.67960347222647</v>
       </c>
       <c r="C22">
-        <v>5.748091901632868</v>
+        <v>9.991822779561419</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>22.98090705261716</v>
+        <v>28.96658972077664</v>
       </c>
       <c r="F22">
-        <v>44.36574940478897</v>
+        <v>46.7497125296868</v>
       </c>
       <c r="G22">
-        <v>35.63502012712112</v>
+        <v>32.48977198217821</v>
       </c>
       <c r="H22">
-        <v>15.73928839835076</v>
+        <v>10.1637960006137</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>8.378880695943248</v>
+        <v>4.712333699678535</v>
       </c>
       <c r="K22">
-        <v>11.59622919884312</v>
+        <v>16.17775259515705</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>18.82888823450064</v>
+        <v>11.08865340156665</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>12.58386535428238</v>
+        <v>18.31841480111739</v>
       </c>
       <c r="C23">
-        <v>5.658800386730934</v>
+        <v>9.812142853766302</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>22.83519500600293</v>
+        <v>28.38797836564236</v>
       </c>
       <c r="F23">
-        <v>44.22784982456472</v>
+        <v>45.97099062235577</v>
       </c>
       <c r="G23">
-        <v>35.61284305620814</v>
+        <v>32.10367633461216</v>
       </c>
       <c r="H23">
-        <v>15.75452792031342</v>
+        <v>10.14831035364306</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>8.387563566902804</v>
+        <v>4.728023078734897</v>
       </c>
       <c r="K23">
-        <v>11.51100010438656</v>
+        <v>15.87692232783565</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>18.856420829331</v>
+        <v>11.20330485767635</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.12147293637296</v>
+        <v>16.89731577195552</v>
       </c>
       <c r="C24">
-        <v>5.305689917038553</v>
+        <v>9.107733135745805</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>22.28348951768141</v>
+        <v>26.16335307555691</v>
       </c>
       <c r="F24">
-        <v>43.72295335471283</v>
+        <v>42.99866502083562</v>
       </c>
       <c r="G24">
-        <v>35.55022690140844</v>
+        <v>30.70933389301696</v>
       </c>
       <c r="H24">
-        <v>15.81744372287414</v>
+        <v>10.11181583058939</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>8.42220166021302</v>
+        <v>4.792646703067873</v>
       </c>
       <c r="K24">
-        <v>11.18609442946132</v>
+        <v>14.69469980396768</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>18.96397037839933</v>
+        <v>11.63902379589218</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.61145898277239</v>
+        <v>15.24746241439226</v>
       </c>
       <c r="C25">
-        <v>4.893238164320364</v>
+        <v>8.295456639288169</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>21.69190660494347</v>
+        <v>23.74852725432109</v>
       </c>
       <c r="F25">
-        <v>43.21761504948566</v>
+        <v>39.74668089210002</v>
       </c>
       <c r="G25">
-        <v>35.528249153894</v>
+        <v>29.34679666806722</v>
       </c>
       <c r="H25">
-        <v>15.89636223146252</v>
+        <v>10.11506053405478</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>8.4633168605311</v>
+        <v>4.872512252267371</v>
       </c>
       <c r="K25">
-        <v>10.83310660632164</v>
+        <v>13.32534631434312</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>19.08702660574395</v>
+        <v>12.11437479160441</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_37/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_37/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.92866744868873</v>
+        <v>24.17416517141931</v>
       </c>
       <c r="C2">
-        <v>7.65110500294618</v>
+        <v>13.94544266388436</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>21.86201246443953</v>
+        <v>11.01692894005177</v>
       </c>
       <c r="F2">
-        <v>37.32010027997813</v>
+        <v>23.8676698151565</v>
       </c>
       <c r="G2">
-        <v>28.46094249474989</v>
+        <v>17.35752679151948</v>
       </c>
       <c r="H2">
-        <v>10.14956691732372</v>
+        <v>1.915901645948152</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2.515194085872484</v>
       </c>
       <c r="J2">
-        <v>4.939238747052572</v>
+        <v>7.851879861124276</v>
       </c>
       <c r="K2">
-        <v>12.23374815260074</v>
+        <v>12.62172743043546</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>5.508184985704577</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.47101348026302</v>
+        <v>10.11184323081596</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>12.17099152023671</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.96842070443529</v>
+        <v>22.59005286497949</v>
       </c>
       <c r="C3">
-        <v>7.18520166583551</v>
+        <v>13.46825161202732</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>20.51701159761424</v>
+        <v>10.84947471439003</v>
       </c>
       <c r="F3">
-        <v>35.66185558831204</v>
+        <v>23.41658163689636</v>
       </c>
       <c r="G3">
-        <v>27.93110549897323</v>
+        <v>17.20234556448592</v>
       </c>
       <c r="H3">
-        <v>10.19083613327014</v>
+        <v>2.123864894397662</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2.665460751467149</v>
       </c>
       <c r="J3">
-        <v>4.989056164421422</v>
+        <v>7.925094521969258</v>
       </c>
       <c r="K3">
-        <v>11.44098279543725</v>
+        <v>12.88121305178362</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>5.40193833569097</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.71776544121016</v>
+        <v>9.695553065089362</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>12.23711563417351</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.34552676935368</v>
+        <v>21.55748455418193</v>
       </c>
       <c r="C4">
-        <v>6.884685150665295</v>
+        <v>13.16849333417178</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>19.65931579464648</v>
+        <v>10.74530896738513</v>
       </c>
       <c r="F4">
-        <v>34.63982223036502</v>
+        <v>23.14515910474083</v>
       </c>
       <c r="G4">
-        <v>27.63942396532783</v>
+        <v>17.12311925325761</v>
       </c>
       <c r="H4">
-        <v>10.2243195777247</v>
+        <v>2.256202508951754</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2.761735843957317</v>
       </c>
       <c r="J4">
-        <v>5.02181205900341</v>
+        <v>7.973440777206164</v>
       </c>
       <c r="K4">
-        <v>10.92783397244399</v>
+        <v>13.04539386880472</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>5.334999153342786</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.87204067172016</v>
+        <v>9.431767741900941</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>12.28560190651657</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.08324812490816</v>
+        <v>21.12147699310617</v>
       </c>
       <c r="C5">
-        <v>6.758594132308502</v>
+        <v>13.05214654604511</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>19.30199901157777</v>
+        <v>10.70140881540018</v>
       </c>
       <c r="F5">
-        <v>34.22288693822613</v>
+        <v>23.02873439181081</v>
       </c>
       <c r="G5">
-        <v>27.52882181568368</v>
+        <v>17.08231580546548</v>
       </c>
       <c r="H5">
-        <v>10.23991551303597</v>
+        <v>2.311529695335258</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.80490389339243</v>
       </c>
       <c r="J5">
-        <v>5.035692019868653</v>
+        <v>7.992133991174743</v>
       </c>
       <c r="K5">
-        <v>10.71205827835115</v>
+        <v>13.11007845663375</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>5.30802217217817</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.93564302476715</v>
+        <v>9.324630830791572</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>12.30247169107555</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.03918489732443</v>
+        <v>21.04802244863609</v>
       </c>
       <c r="C6">
-        <v>6.737438049507705</v>
+        <v>13.04179886458174</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>19.24220341542165</v>
+        <v>10.69270946122443</v>
       </c>
       <c r="F6">
-        <v>34.15364474844367</v>
+        <v>23.00054475003723</v>
       </c>
       <c r="G6">
-        <v>27.51094886679388</v>
+        <v>17.06057711207097</v>
       </c>
       <c r="H6">
-        <v>10.242620297653</v>
+        <v>2.321050046110798</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2.815905870861913</v>
       </c>
       <c r="J6">
-        <v>5.038028519027224</v>
+        <v>7.993043163810272</v>
       </c>
       <c r="K6">
-        <v>10.67582579308323</v>
+        <v>13.1167068357652</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>5.304398324742262</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.94624954022382</v>
+        <v>9.309543021246377</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>12.29953392078379</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.34202387143541</v>
+        <v>21.55128841396693</v>
       </c>
       <c r="C7">
-        <v>6.882999318460397</v>
+        <v>13.19148797278683</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>19.65452813972275</v>
+        <v>10.74095326988771</v>
       </c>
       <c r="F7">
-        <v>34.63420036665359</v>
+        <v>23.11931651499401</v>
       </c>
       <c r="G7">
-        <v>27.63789918663846</v>
+        <v>17.08117691993854</v>
       </c>
       <c r="H7">
-        <v>10.22452213475217</v>
+        <v>2.2576401656571</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2.772302631475496</v>
       </c>
       <c r="J7">
-        <v>5.021997113142908</v>
+        <v>7.967562956959243</v>
       </c>
       <c r="K7">
-        <v>10.92495095648128</v>
+        <v>13.03482475320881</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>5.337049077073186</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.87289541513637</v>
+        <v>9.437907713843716</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>12.26984206475807</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.60444198562649</v>
+        <v>23.63991382248776</v>
       </c>
       <c r="C8">
-        <v>7.493460755380078</v>
+        <v>13.81395841174535</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>21.40497496408468</v>
+        <v>10.95466278464856</v>
       </c>
       <c r="F8">
-        <v>36.749430582101</v>
+        <v>23.67980849655615</v>
       </c>
       <c r="G8">
-        <v>28.27116307220229</v>
+        <v>17.2466284041899</v>
       </c>
       <c r="H8">
-        <v>10.16204688664516</v>
+        <v>1.987497669187132</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2.579087517922866</v>
       </c>
       <c r="J8">
-        <v>4.955957378955019</v>
+        <v>7.86830754594389</v>
       </c>
       <c r="K8">
-        <v>11.96585983859154</v>
+        <v>12.69504047350007</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>5.475128469649201</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.555542392213</v>
+        <v>9.979593841496595</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>12.17098656993975</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.81915538099882</v>
+        <v>27.26314203997624</v>
       </c>
       <c r="C9">
-        <v>8.57619757228959</v>
+        <v>14.93443212873438</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>24.57885969221086</v>
+        <v>11.36842795232049</v>
       </c>
       <c r="F9">
-        <v>40.84776290015166</v>
+        <v>24.8601256307382</v>
       </c>
       <c r="G9">
-        <v>29.78722622454656</v>
+        <v>17.77627832499838</v>
       </c>
       <c r="H9">
-        <v>10.1086831416858</v>
+        <v>1.626693096172487</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.73284578696149</v>
       </c>
       <c r="J9">
-        <v>4.844328584659825</v>
+        <v>7.712763786217018</v>
       </c>
       <c r="K9">
-        <v>13.7994159055484</v>
+        <v>12.08825772648453</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>5.727532943546548</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.95334919515049</v>
+        <v>10.96003384594451</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>12.07223175051207</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.29207330295051</v>
+        <v>29.63823179970538</v>
       </c>
       <c r="C10">
-        <v>9.302988464566404</v>
+        <v>15.79299498556725</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>26.75124863536031</v>
+        <v>11.55421692788748</v>
       </c>
       <c r="F10">
-        <v>43.80922546891892</v>
+        <v>25.54437168386753</v>
       </c>
       <c r="G10">
-        <v>31.07647230270313</v>
+        <v>18.07215860462311</v>
       </c>
       <c r="H10">
-        <v>10.11814835979865</v>
+        <v>1.954293236151182</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.975630450376319</v>
       </c>
       <c r="J10">
-        <v>4.774264376901076</v>
+        <v>7.589784924424865</v>
       </c>
       <c r="K10">
-        <v>15.02286772341647</v>
+        <v>11.62010125467799</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>5.930090749568037</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.52043986106231</v>
+        <v>11.53633113799661</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>11.97308613010369</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.92976362304496</v>
+        <v>30.64350924035432</v>
       </c>
       <c r="C11">
-        <v>9.619088087105542</v>
+        <v>16.7788879538142</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>27.76690097215268</v>
+        <v>10.75793509429527</v>
       </c>
       <c r="F11">
-        <v>45.14335869452803</v>
+        <v>24.18792262033612</v>
       </c>
       <c r="G11">
-        <v>31.70245338743591</v>
+        <v>16.77841341514389</v>
       </c>
       <c r="H11">
-        <v>10.13451362563862</v>
+        <v>2.865756333238879</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.05672291762911</v>
       </c>
       <c r="J11">
-        <v>4.74525561852283</v>
+        <v>7.315427737922946</v>
       </c>
       <c r="K11">
-        <v>15.55337414883162</v>
+        <v>11.06338980115333</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>6.260008122565608</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.32489978064302</v>
+        <v>10.93909524147896</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>11.3521408329111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.16668534264129</v>
+        <v>31.0107632601547</v>
       </c>
       <c r="C12">
-        <v>9.736738573162784</v>
+        <v>17.41898662307915</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>28.14532201820821</v>
+        <v>10.1396176949354</v>
       </c>
       <c r="F12">
-        <v>45.64659911260186</v>
+        <v>22.91696318714341</v>
       </c>
       <c r="G12">
-        <v>31.94527582198082</v>
+        <v>15.65959280353925</v>
       </c>
       <c r="H12">
-        <v>10.14257385666906</v>
+        <v>4.144131803446737</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.072536018225602</v>
       </c>
       <c r="J12">
-        <v>4.734708546813588</v>
+        <v>7.118581848768048</v>
       </c>
       <c r="K12">
-        <v>15.75058963393503</v>
+        <v>10.74723637469652</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>6.516504634775544</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.25099406405357</v>
+        <v>10.30309195763091</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>10.86866926449932</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.11586116372197</v>
+        <v>30.92178378135209</v>
       </c>
       <c r="C13">
-        <v>9.711490903631363</v>
+        <v>17.87432278438587</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>28.06409426129064</v>
+        <v>9.629884182397646</v>
       </c>
       <c r="F13">
-        <v>45.53830528966255</v>
+        <v>21.58689141549729</v>
       </c>
       <c r="G13">
-        <v>31.89272114808078</v>
+        <v>14.53221841147135</v>
       </c>
       <c r="H13">
-        <v>10.14075297744308</v>
+        <v>5.477373773872877</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.043582523797366</v>
       </c>
       <c r="J13">
-        <v>4.736960122863032</v>
+        <v>6.961036256361673</v>
       </c>
       <c r="K13">
-        <v>15.70827804141682</v>
+        <v>10.58491595823106</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>6.734763015244545</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.26690570476062</v>
+        <v>9.596277556486681</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>10.43835282785533</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.94934610221478</v>
+        <v>30.65182020238637</v>
       </c>
       <c r="C14">
-        <v>9.628808094529836</v>
+        <v>18.12138978479302</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>27.7981567482301</v>
+        <v>9.347012861781337</v>
       </c>
       <c r="F14">
-        <v>45.18480021910913</v>
+        <v>20.62350468974571</v>
       </c>
       <c r="G14">
-        <v>31.72231418795327</v>
+        <v>13.73002507742113</v>
       </c>
       <c r="H14">
-        <v>10.1351386516234</v>
+        <v>6.448276884449627</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.004303372298914</v>
       </c>
       <c r="J14">
-        <v>4.744378967791386</v>
+        <v>6.868956911547036</v>
       </c>
       <c r="K14">
-        <v>15.56967242749512</v>
+        <v>10.54773625766548</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>6.873581908897602</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.31881704254558</v>
+        <v>9.067530612281509</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>10.16195721792629</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.84676014441677</v>
+        <v>30.48718608702037</v>
       </c>
       <c r="C15">
-        <v>9.577896833115044</v>
+        <v>18.14998082974438</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>27.63446259158039</v>
+        <v>9.289149325031349</v>
       </c>
       <c r="F15">
-        <v>44.96801078868569</v>
+        <v>20.3711088029584</v>
       </c>
       <c r="G15">
-        <v>31.61869027053698</v>
+        <v>13.52301595007532</v>
       </c>
       <c r="H15">
-        <v>10.13194624878515</v>
+        <v>6.687007947365113</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.986338552272567</v>
       </c>
       <c r="J15">
-        <v>4.748981080323371</v>
+        <v>6.853406700935993</v>
       </c>
       <c r="K15">
-        <v>15.48429598904176</v>
+        <v>10.56495803607693</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>6.897782921340267</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.3506307653468</v>
+        <v>8.925184901219895</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>10.10241533023014</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.24975571333617</v>
+        <v>29.53342663563727</v>
       </c>
       <c r="C16">
-        <v>9.282041544451255</v>
+        <v>17.73396898543838</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>26.68626286038404</v>
+        <v>9.307016443113501</v>
       </c>
       <c r="F16">
-        <v>43.72176445603447</v>
+        <v>20.30330339414142</v>
       </c>
       <c r="G16">
-        <v>31.036366040439</v>
+        <v>13.56978239459979</v>
       </c>
       <c r="H16">
-        <v>10.11733243011741</v>
+        <v>6.4753516992964</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.890480187707521</v>
       </c>
       <c r="J16">
-        <v>4.776219958315838</v>
+        <v>6.936413392971839</v>
       </c>
       <c r="K16">
-        <v>14.98767953823078</v>
+        <v>10.79712943175272</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>6.772843442850589</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.53324194041474</v>
+        <v>8.795805052893042</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>10.22551496868554</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.87529282756936</v>
+        <v>28.93539817482963</v>
       </c>
       <c r="C17">
-        <v>9.096849915646906</v>
+        <v>17.27373607734184</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>26.13075668449427</v>
+        <v>9.457779166245734</v>
       </c>
       <c r="F17">
-        <v>42.95379891099073</v>
+        <v>20.76867666974475</v>
       </c>
       <c r="G17">
-        <v>30.68931429015592</v>
+        <v>14.03641043899148</v>
       </c>
       <c r="H17">
-        <v>10.11154626498727</v>
+        <v>5.731468922196642</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.838043405341696</v>
       </c>
       <c r="J17">
-        <v>4.793681263565676</v>
+        <v>7.047863631047274</v>
       </c>
       <c r="K17">
-        <v>14.67639737167719</v>
+        <v>10.98995375319306</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>6.599153544829041</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.64558407756735</v>
+        <v>8.984831592197251</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>10.46403806560471</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.65686105635812</v>
+        <v>28.59036105907046</v>
       </c>
       <c r="C18">
-        <v>8.988963043082288</v>
+        <v>16.71216319684481</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>25.80796260206826</v>
+        <v>9.809107365007872</v>
       </c>
       <c r="F18">
-        <v>42.51085704425967</v>
+        <v>21.76463218231298</v>
       </c>
       <c r="G18">
-        <v>30.4934113674723</v>
+        <v>14.94046867540886</v>
       </c>
       <c r="H18">
-        <v>10.1093453061224</v>
+        <v>4.462801219209505</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.814493878412234</v>
       </c>
       <c r="J18">
-        <v>4.803992365577969</v>
+        <v>7.201728539947857</v>
       </c>
       <c r="K18">
-        <v>14.49489972500702</v>
+        <v>11.19804430671672</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>6.370454456806312</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.71033520141857</v>
+        <v>9.470821068833773</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>10.8417298979474</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.58237709915521</v>
+        <v>28.47956060852751</v>
       </c>
       <c r="C19">
-        <v>8.952198119459373</v>
+        <v>16.17181006896388</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>25.69810497400202</v>
+        <v>10.38037789055615</v>
       </c>
       <c r="F19">
-        <v>42.36067769959362</v>
+        <v>23.08066691947181</v>
       </c>
       <c r="G19">
-        <v>30.42771659483697</v>
+        <v>16.061911560334</v>
       </c>
       <c r="H19">
-        <v>10.10878982807013</v>
+        <v>2.960911030312389</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.827337277522027</v>
       </c>
       <c r="J19">
-        <v>4.807528778719653</v>
+        <v>7.371870639994202</v>
       </c>
       <c r="K19">
-        <v>14.43302384367723</v>
+        <v>11.42401088986189</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>6.136180102467368</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.73228371161424</v>
+        <v>10.17332182690212</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>11.28470278553741</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.91547010778685</v>
+        <v>29.03265631989808</v>
       </c>
       <c r="C20">
-        <v>9.116705366146885</v>
+        <v>15.64264817061897</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>26.19023051992263</v>
+        <v>11.49061012058922</v>
       </c>
       <c r="F20">
-        <v>43.0356782120934</v>
+        <v>25.28691491564837</v>
       </c>
       <c r="G20">
-        <v>30.72587365600764</v>
+        <v>17.8608271801515</v>
       </c>
       <c r="H20">
-        <v>10.1120446439662</v>
+        <v>1.866172237347717</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.923554409524836</v>
       </c>
       <c r="J20">
-        <v>4.791794579721728</v>
+        <v>7.600686670242214</v>
       </c>
       <c r="K20">
-        <v>14.70978763214952</v>
+        <v>11.70404874908562</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>5.886310316735063</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.63361151683243</v>
+        <v>11.402932885431</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>11.94385502845348</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.99837853254437</v>
+        <v>30.76888495079552</v>
       </c>
       <c r="C21">
-        <v>9.653149323151187</v>
+        <v>16.17028753934676</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>27.87643536016465</v>
+        <v>11.80010590015579</v>
       </c>
       <c r="F21">
-        <v>45.28868690376301</v>
+        <v>26.12667974043716</v>
       </c>
       <c r="G21">
-        <v>31.77220926696943</v>
+        <v>18.39366651459975</v>
       </c>
       <c r="H21">
-        <v>10.1367361009763</v>
+        <v>2.123196786602897</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.11047254691892</v>
       </c>
       <c r="J21">
-        <v>4.742187765211847</v>
+        <v>7.555111271172348</v>
       </c>
       <c r="K21">
-        <v>15.61048342279805</v>
+        <v>11.42405069880012</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>5.998143546094456</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.30356609237582</v>
+        <v>11.98018997930346</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>11.99518275675718</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.67960347222647</v>
+        <v>31.85228641055199</v>
       </c>
       <c r="C22">
-        <v>9.991822779561419</v>
+        <v>16.51301705112077</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>28.96658972077664</v>
+        <v>11.94932557860929</v>
       </c>
       <c r="F22">
-        <v>46.7497125296868</v>
+        <v>26.60643617083279</v>
       </c>
       <c r="G22">
-        <v>32.48977198217821</v>
+        <v>18.72409060863684</v>
       </c>
       <c r="H22">
-        <v>10.1637960006137</v>
+        <v>2.284092803130551</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.224717144743734</v>
       </c>
       <c r="J22">
-        <v>4.712333699678535</v>
+        <v>7.524806304361356</v>
       </c>
       <c r="K22">
-        <v>16.17775259515705</v>
+        <v>11.24055023940237</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>6.079180416553786</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.08865340156665</v>
+        <v>12.28862636068036</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>12.02603398106527</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.31841480111739</v>
+        <v>31.27900322695135</v>
       </c>
       <c r="C23">
-        <v>9.812142853766302</v>
+        <v>16.30573022603095</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>28.38797836564236</v>
+        <v>11.8737129535039</v>
       </c>
       <c r="F23">
-        <v>45.97099062235577</v>
+        <v>26.37511174870009</v>
       </c>
       <c r="G23">
-        <v>32.10367633461216</v>
+        <v>18.59032368700005</v>
       </c>
       <c r="H23">
-        <v>10.14831035364306</v>
+        <v>2.199082150734949</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.159726166295706</v>
       </c>
       <c r="J23">
-        <v>4.728023078734897</v>
+        <v>7.547807092955066</v>
       </c>
       <c r="K23">
-        <v>15.87692232783565</v>
+        <v>11.35182704661259</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>6.033260636664661</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.20330485767635</v>
+        <v>12.11776855554819</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>12.02711466340643</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.89731577195552</v>
+        <v>29.00529779700274</v>
       </c>
       <c r="C24">
-        <v>9.107733135745805</v>
+        <v>15.54215385493943</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>26.16335307555691</v>
+        <v>11.577616934326</v>
       </c>
       <c r="F24">
-        <v>42.99866502083562</v>
+        <v>25.4639974311101</v>
       </c>
       <c r="G24">
-        <v>30.70933389301696</v>
+        <v>18.04989804782002</v>
       </c>
       <c r="H24">
-        <v>10.11181583058939</v>
+        <v>1.869460023583599</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.916391744736102</v>
       </c>
       <c r="J24">
-        <v>4.792646703067873</v>
+        <v>7.632024221192883</v>
       </c>
       <c r="K24">
-        <v>14.69469980396768</v>
+        <v>11.76185644008541</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>5.860076251710962</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.63902379589218</v>
+        <v>11.4623250402861</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>12.02308715480898</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.24746241439226</v>
+        <v>26.33271645117226</v>
       </c>
       <c r="C25">
-        <v>8.295456639288169</v>
+        <v>14.67945572132655</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>23.74852725432109</v>
+        <v>11.25159118160035</v>
       </c>
       <c r="F25">
-        <v>39.74668089210002</v>
+        <v>24.49632900307481</v>
       </c>
       <c r="G25">
-        <v>29.34679666806722</v>
+        <v>17.54639232297811</v>
       </c>
       <c r="H25">
-        <v>10.11506053405478</v>
+        <v>1.623891916679045</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.646784121031621</v>
       </c>
       <c r="J25">
-        <v>4.872512252267371</v>
+        <v>7.740595449480048</v>
       </c>
       <c r="K25">
-        <v>13.32534631434312</v>
+        <v>12.2273947506637</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>5.665222627505029</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>12.11437479160441</v>
+        <v>10.71488019577704</v>
       </c>
       <c r="O25">
         <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>12.06253098424743</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_37/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_37/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.17416517141931</v>
+        <v>24.19918519717449</v>
       </c>
       <c r="C2">
-        <v>13.94544266388436</v>
+        <v>13.86941720884276</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>11.01692894005177</v>
+        <v>10.94343977195595</v>
       </c>
       <c r="F2">
-        <v>23.8676698151565</v>
+        <v>23.64191256215148</v>
       </c>
       <c r="G2">
-        <v>17.35752679151948</v>
+        <v>16.24045014069251</v>
       </c>
       <c r="H2">
-        <v>1.915901645948152</v>
+        <v>1.874244717383169</v>
       </c>
       <c r="I2">
-        <v>2.515194085872484</v>
+        <v>2.494261737552612</v>
       </c>
       <c r="J2">
-        <v>7.851879861124276</v>
+        <v>8.343619739008238</v>
       </c>
       <c r="K2">
-        <v>12.62172743043546</v>
+        <v>12.38776144183974</v>
       </c>
       <c r="L2">
-        <v>5.508184985704577</v>
+        <v>10.76470005650773</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>7.517880434210657</v>
       </c>
       <c r="N2">
-        <v>10.11184323081596</v>
+        <v>5.503526144912774</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>10.20876615994251</v>
       </c>
       <c r="Q2">
-        <v>12.17099152023671</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>12.01491594813844</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.59005286497949</v>
+        <v>22.62102231989836</v>
       </c>
       <c r="C3">
-        <v>13.46825161202732</v>
+        <v>13.31490950280902</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>10.84947471439003</v>
+        <v>10.78835654256127</v>
       </c>
       <c r="F3">
-        <v>23.41658163689636</v>
+        <v>23.22493220017429</v>
       </c>
       <c r="G3">
-        <v>17.20234556448592</v>
+        <v>16.13807152509469</v>
       </c>
       <c r="H3">
-        <v>2.123864894397662</v>
+        <v>2.071197807648853</v>
       </c>
       <c r="I3">
-        <v>2.665460751467149</v>
+        <v>2.590087244382269</v>
       </c>
       <c r="J3">
-        <v>7.925094521969258</v>
+        <v>8.38846168881652</v>
       </c>
       <c r="K3">
-        <v>12.88121305178362</v>
+        <v>12.643162459329</v>
       </c>
       <c r="L3">
-        <v>5.40193833569097</v>
+        <v>10.9710100903143</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>7.738831548510455</v>
       </c>
       <c r="N3">
-        <v>9.695553065089362</v>
+        <v>5.38639786612478</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>9.786896879613096</v>
       </c>
       <c r="Q3">
-        <v>12.23711563417351</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>12.09418708649546</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.55748455418193</v>
+        <v>21.59233945459053</v>
       </c>
       <c r="C4">
-        <v>13.16849333417178</v>
+        <v>12.96614058976599</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>10.74530896738513</v>
+        <v>10.69196312670838</v>
       </c>
       <c r="F4">
-        <v>23.14515910474083</v>
+        <v>22.97341046870355</v>
       </c>
       <c r="G4">
-        <v>17.12311925325761</v>
+        <v>16.09215625635812</v>
       </c>
       <c r="H4">
-        <v>2.256202508951754</v>
+        <v>2.196572678936677</v>
       </c>
       <c r="I4">
-        <v>2.761735843957317</v>
+        <v>2.676793916720217</v>
       </c>
       <c r="J4">
-        <v>7.973440777206164</v>
+        <v>8.417580284453411</v>
       </c>
       <c r="K4">
-        <v>13.04539386880472</v>
+        <v>12.80386969018322</v>
       </c>
       <c r="L4">
-        <v>5.334999153342786</v>
+        <v>11.10389119784093</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>7.891628933341485</v>
       </c>
       <c r="N4">
-        <v>9.431767741900941</v>
+        <v>5.31274250966306</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>9.51999758783197</v>
       </c>
       <c r="Q4">
-        <v>12.28560190651657</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>12.14922066528664</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.12147699310617</v>
+        <v>21.15798116224149</v>
       </c>
       <c r="C5">
-        <v>13.05214654604511</v>
+        <v>12.82966079985789</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10.70140881540018</v>
+        <v>10.65129553957624</v>
       </c>
       <c r="F5">
-        <v>23.02873439181081</v>
+        <v>22.86492371658869</v>
       </c>
       <c r="G5">
-        <v>17.08231580546548</v>
+        <v>16.06488168384387</v>
       </c>
       <c r="H5">
-        <v>2.311529695335258</v>
+        <v>2.24900839108047</v>
       </c>
       <c r="I5">
-        <v>2.80490389339243</v>
+        <v>2.716566221994309</v>
       </c>
       <c r="J5">
-        <v>7.992133991174743</v>
+        <v>8.428049334237549</v>
       </c>
       <c r="K5">
-        <v>13.11007845663375</v>
+        <v>12.86701351514265</v>
       </c>
       <c r="L5">
-        <v>5.30802217217817</v>
+        <v>11.1558932903495</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>7.956916749054405</v>
       </c>
       <c r="N5">
-        <v>9.324630830791572</v>
+        <v>5.283028548308471</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>9.411630430741837</v>
       </c>
       <c r="Q5">
-        <v>12.30247169107555</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>12.16847000767513</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.04802244863609</v>
+        <v>21.08480048739479</v>
       </c>
       <c r="C6">
-        <v>13.04179886458174</v>
+        <v>12.81616438050927</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10.69270946122443</v>
+        <v>10.64316465166363</v>
       </c>
       <c r="F6">
-        <v>23.00054475003723</v>
+        <v>22.83817440999056</v>
       </c>
       <c r="G6">
-        <v>17.06057711207097</v>
+        <v>16.04515613106513</v>
       </c>
       <c r="H6">
-        <v>2.321050046110798</v>
+        <v>2.258043329412686</v>
       </c>
       <c r="I6">
-        <v>2.815905870861913</v>
+        <v>2.727694691347629</v>
       </c>
       <c r="J6">
-        <v>7.993043163810272</v>
+        <v>8.427626877507358</v>
       </c>
       <c r="K6">
-        <v>13.1167068357652</v>
+        <v>12.87350341566894</v>
       </c>
       <c r="L6">
-        <v>5.304398324742262</v>
+        <v>11.16011633705995</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>7.966633396107022</v>
       </c>
       <c r="N6">
-        <v>9.309543021246377</v>
+        <v>5.278954894890256</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>9.396279441424175</v>
       </c>
       <c r="Q6">
-        <v>12.29953392078379</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>12.16600786546566</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.55128841396693</v>
+        <v>21.58597291130088</v>
       </c>
       <c r="C7">
-        <v>13.19148797278683</v>
+        <v>12.98329427938773</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10.74095326988771</v>
+        <v>10.69006031251675</v>
       </c>
       <c r="F7">
-        <v>23.11931651499401</v>
+        <v>22.93831883093055</v>
       </c>
       <c r="G7">
-        <v>17.08117691993854</v>
+        <v>16.12719194651359</v>
       </c>
       <c r="H7">
-        <v>2.2576401656571</v>
+        <v>2.198365548456012</v>
       </c>
       <c r="I7">
-        <v>2.772302631475496</v>
+        <v>2.689584808224935</v>
       </c>
       <c r="J7">
-        <v>7.967562956959243</v>
+        <v>8.381568705093114</v>
       </c>
       <c r="K7">
-        <v>13.03482475320881</v>
+        <v>12.78985432815279</v>
       </c>
       <c r="L7">
-        <v>5.337049077073186</v>
+        <v>11.08848462672912</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>7.886892406278122</v>
       </c>
       <c r="N7">
-        <v>9.437907713843716</v>
+        <v>5.315842998001298</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>9.527378640340729</v>
       </c>
       <c r="Q7">
-        <v>12.26984206475807</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>12.12448899419462</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.63991382248776</v>
+        <v>23.66638586749294</v>
       </c>
       <c r="C8">
-        <v>13.81395841174535</v>
+        <v>13.69283576613857</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>10.95466278464856</v>
+        <v>10.89324593118718</v>
       </c>
       <c r="F8">
-        <v>23.67980849655615</v>
+        <v>23.43507528946467</v>
       </c>
       <c r="G8">
-        <v>17.2466284041899</v>
+        <v>16.40320548545289</v>
       </c>
       <c r="H8">
-        <v>1.987497669187132</v>
+        <v>1.943299866711973</v>
       </c>
       <c r="I8">
-        <v>2.579087517922866</v>
+        <v>2.517577889971529</v>
       </c>
       <c r="J8">
-        <v>7.86830754594389</v>
+        <v>8.252617587528052</v>
       </c>
       <c r="K8">
-        <v>12.69504047350007</v>
+        <v>12.44820965624884</v>
       </c>
       <c r="L8">
-        <v>5.475128469649201</v>
+        <v>10.80875209762415</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>7.575989815141856</v>
       </c>
       <c r="N8">
-        <v>9.979593841496595</v>
+        <v>5.470361680808609</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>10.07885727892681</v>
       </c>
       <c r="Q8">
-        <v>12.17098656993975</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>11.98943468179914</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.26314203997624</v>
+        <v>27.27559383877882</v>
       </c>
       <c r="C9">
-        <v>14.93443212873438</v>
+        <v>14.99165797017397</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>11.36842795232049</v>
+        <v>11.27914553581744</v>
       </c>
       <c r="F9">
-        <v>24.8601256307382</v>
+        <v>24.51841199596491</v>
       </c>
       <c r="G9">
-        <v>17.77627832499838</v>
+        <v>16.87217349999045</v>
       </c>
       <c r="H9">
-        <v>1.626693096172487</v>
+        <v>1.643867170917471</v>
       </c>
       <c r="I9">
-        <v>2.73284578696149</v>
+        <v>2.765500678532012</v>
       </c>
       <c r="J9">
-        <v>7.712763786217018</v>
+        <v>8.129114530764939</v>
       </c>
       <c r="K9">
-        <v>12.08825772648453</v>
+        <v>11.84196742232517</v>
       </c>
       <c r="L9">
-        <v>5.727532943546548</v>
+        <v>10.34300236279527</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>7.126127506574368</v>
       </c>
       <c r="N9">
-        <v>10.96003384594451</v>
+        <v>5.750500193829247</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>11.07539847496424</v>
       </c>
       <c r="Q9">
-        <v>12.07223175051207</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>11.84009841135579</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.63823179970538</v>
+        <v>29.64014457534623</v>
       </c>
       <c r="C10">
-        <v>15.79299498556725</v>
+        <v>15.93363782158526</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>11.55421692788748</v>
+        <v>11.46003250656931</v>
       </c>
       <c r="F10">
-        <v>25.54437168386753</v>
+        <v>25.08795162312354</v>
       </c>
       <c r="G10">
-        <v>18.07215860462311</v>
+        <v>17.57436316798597</v>
       </c>
       <c r="H10">
-        <v>1.954293236151182</v>
+        <v>1.951822642139373</v>
       </c>
       <c r="I10">
-        <v>2.975630450376319</v>
+        <v>2.983198285037691</v>
       </c>
       <c r="J10">
-        <v>7.589784924424865</v>
+        <v>7.861356642146259</v>
       </c>
       <c r="K10">
-        <v>11.62010125467799</v>
+        <v>11.35606196024561</v>
       </c>
       <c r="L10">
-        <v>5.930090749568037</v>
+        <v>9.993967898563982</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>6.838166127384021</v>
       </c>
       <c r="N10">
-        <v>11.53633113799661</v>
+        <v>5.979142605965918</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>11.66820722658273</v>
       </c>
       <c r="Q10">
-        <v>11.97308613010369</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>11.64984137161563</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.64350924035432</v>
+        <v>30.64068488222629</v>
       </c>
       <c r="C11">
-        <v>16.7788879538142</v>
+        <v>16.83705089221037</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>10.75793509429527</v>
+        <v>10.68829151627207</v>
       </c>
       <c r="F11">
-        <v>24.18792262033612</v>
+        <v>23.68057047395041</v>
       </c>
       <c r="G11">
-        <v>16.77841341514389</v>
+        <v>17.3124433370823</v>
       </c>
       <c r="H11">
-        <v>2.865756333238879</v>
+        <v>2.85792367275489</v>
       </c>
       <c r="I11">
-        <v>3.05672291762911</v>
+        <v>3.055106407074516</v>
       </c>
       <c r="J11">
-        <v>7.315427737922946</v>
+        <v>7.361601670905145</v>
       </c>
       <c r="K11">
-        <v>11.06338980115333</v>
+        <v>10.8414354075937</v>
       </c>
       <c r="L11">
-        <v>6.260008122565608</v>
+        <v>9.676946577317052</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>6.410224207483417</v>
       </c>
       <c r="N11">
-        <v>10.93909524147896</v>
+        <v>6.331469426015447</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>11.06624576688489</v>
       </c>
       <c r="Q11">
-        <v>11.3521408329111</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>10.96915804614118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.0107632601547</v>
+        <v>31.00650883402403</v>
       </c>
       <c r="C12">
-        <v>17.41898662307915</v>
+        <v>17.40231765654912</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>10.1396176949354</v>
+        <v>10.07653553847234</v>
       </c>
       <c r="F12">
-        <v>22.91696318714341</v>
+        <v>22.42383106558262</v>
       </c>
       <c r="G12">
-        <v>15.65959280353925</v>
+        <v>16.70964592459889</v>
       </c>
       <c r="H12">
-        <v>4.144131803446737</v>
+        <v>4.137497417121963</v>
       </c>
       <c r="I12">
-        <v>3.072536018225602</v>
+        <v>3.067419415743724</v>
       </c>
       <c r="J12">
-        <v>7.118581848768048</v>
+        <v>7.137893584434781</v>
       </c>
       <c r="K12">
-        <v>10.74723637469652</v>
+        <v>10.57913028844306</v>
       </c>
       <c r="L12">
-        <v>6.516504634775544</v>
+        <v>9.538911679556961</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>6.151248620077491</v>
       </c>
       <c r="N12">
-        <v>10.30309195763091</v>
+        <v>6.596247763173267</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>10.41813028557842</v>
       </c>
       <c r="Q12">
-        <v>10.86866926449932</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>10.49199722437227</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.92178378135209</v>
+        <v>30.9187915714353</v>
       </c>
       <c r="C13">
-        <v>17.87432278438587</v>
+        <v>17.79935040998344</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>9.629884182397646</v>
+        <v>9.560276995619924</v>
       </c>
       <c r="F13">
-        <v>21.58689141549729</v>
+        <v>21.17972774829276</v>
       </c>
       <c r="G13">
-        <v>14.53221841147135</v>
+        <v>15.53227473055601</v>
       </c>
       <c r="H13">
-        <v>5.477373773872877</v>
+        <v>5.473305516386599</v>
       </c>
       <c r="I13">
-        <v>3.043582523797366</v>
+        <v>3.041328786216699</v>
       </c>
       <c r="J13">
-        <v>6.961036256361673</v>
+        <v>7.085795625819577</v>
       </c>
       <c r="K13">
-        <v>10.58491595823106</v>
+        <v>10.47612950362512</v>
       </c>
       <c r="L13">
-        <v>6.734763015244545</v>
+        <v>9.492814667277399</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>6.013532413649281</v>
       </c>
       <c r="N13">
-        <v>9.596277556486681</v>
+        <v>6.807226153434928</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>9.690046292402334</v>
       </c>
       <c r="Q13">
-        <v>10.43835282785533</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>10.13794452073645</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.65182020238637</v>
+        <v>30.65089102907446</v>
       </c>
       <c r="C14">
-        <v>18.12138978479302</v>
+        <v>18.01243367514181</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>9.347012861781337</v>
+        <v>9.270545769370859</v>
       </c>
       <c r="F14">
-        <v>20.62350468974571</v>
+        <v>20.30632620219377</v>
       </c>
       <c r="G14">
-        <v>13.73002507742113</v>
+        <v>14.4455345569644</v>
       </c>
       <c r="H14">
-        <v>6.448276884449627</v>
+        <v>6.449913528476498</v>
       </c>
       <c r="I14">
-        <v>3.004303372298914</v>
+        <v>3.007237688717339</v>
       </c>
       <c r="J14">
-        <v>6.868956911547036</v>
+        <v>7.107979774231089</v>
       </c>
       <c r="K14">
-        <v>10.54773625766548</v>
+        <v>10.4740429724931</v>
       </c>
       <c r="L14">
-        <v>6.873581908897602</v>
+        <v>9.493684978020941</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>5.980971887509782</v>
       </c>
       <c r="N14">
-        <v>9.067530612281509</v>
+        <v>6.933038459904256</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>9.142765210976519</v>
       </c>
       <c r="Q14">
-        <v>10.16195721792629</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>9.941251745242038</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.48718608702037</v>
+        <v>30.48732984579961</v>
       </c>
       <c r="C15">
-        <v>18.14998082974438</v>
+        <v>18.03607252054529</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>9.289149325031349</v>
+        <v>9.211011250649037</v>
       </c>
       <c r="F15">
-        <v>20.3711088029584</v>
+        <v>20.08842079165742</v>
       </c>
       <c r="G15">
-        <v>13.52301595007532</v>
+        <v>14.06520240595583</v>
       </c>
       <c r="H15">
-        <v>6.687007947365113</v>
+        <v>6.688201631406085</v>
       </c>
       <c r="I15">
-        <v>2.986338552272567</v>
+        <v>2.992416283308253</v>
       </c>
       <c r="J15">
-        <v>6.853406700935993</v>
+        <v>7.138853166975416</v>
       </c>
       <c r="K15">
-        <v>10.56495803607693</v>
+        <v>10.49817044011083</v>
       </c>
       <c r="L15">
-        <v>6.897782921340267</v>
+        <v>9.503875264801405</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>5.996029895003024</v>
       </c>
       <c r="N15">
-        <v>8.925184901219895</v>
+        <v>6.950936277457369</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>8.994397899192506</v>
       </c>
       <c r="Q15">
-        <v>10.10241533023014</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>9.912122223883802</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.53342663563727</v>
+        <v>29.53891531395249</v>
       </c>
       <c r="C16">
-        <v>17.73396898543838</v>
+        <v>17.64672411411732</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>9.307016443113501</v>
+        <v>9.228391969219297</v>
       </c>
       <c r="F16">
-        <v>20.30330339414142</v>
+        <v>20.12397890751614</v>
       </c>
       <c r="G16">
-        <v>13.56978239459979</v>
+        <v>13.2797500089173</v>
       </c>
       <c r="H16">
-        <v>6.4753516992964</v>
+        <v>6.474341805454858</v>
       </c>
       <c r="I16">
-        <v>2.890480187707521</v>
+        <v>2.910169464079571</v>
       </c>
       <c r="J16">
-        <v>6.936413392971839</v>
+        <v>7.399935117772788</v>
       </c>
       <c r="K16">
-        <v>10.79712943175272</v>
+        <v>10.7228317984397</v>
       </c>
       <c r="L16">
-        <v>6.772843442850589</v>
+        <v>9.599879062733184</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>6.200179384540371</v>
       </c>
       <c r="N16">
-        <v>8.795805052893042</v>
+        <v>6.801265579830072</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>8.852910742793158</v>
       </c>
       <c r="Q16">
-        <v>10.22551496868554</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>10.12556798254078</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.93539817482963</v>
+        <v>28.94371771095448</v>
       </c>
       <c r="C17">
-        <v>17.27373607734184</v>
+        <v>17.2165714089192</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>9.457779166245734</v>
+        <v>9.379012262793296</v>
       </c>
       <c r="F17">
-        <v>20.76867666974475</v>
+        <v>20.61035548037592</v>
       </c>
       <c r="G17">
-        <v>14.03641043899148</v>
+        <v>13.37895232377537</v>
       </c>
       <c r="H17">
-        <v>5.731468922196642</v>
+        <v>5.728776255050795</v>
       </c>
       <c r="I17">
-        <v>2.838043405341696</v>
+        <v>2.8650663710762</v>
       </c>
       <c r="J17">
-        <v>7.047863631047274</v>
+        <v>7.58600449551192</v>
       </c>
       <c r="K17">
-        <v>10.98995375319306</v>
+        <v>10.89928863650483</v>
       </c>
       <c r="L17">
-        <v>6.599153544829041</v>
+        <v>9.689132305417331</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>6.361926026027126</v>
       </c>
       <c r="N17">
-        <v>8.984831592197251</v>
+        <v>6.619127600677315</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>9.043671098596196</v>
       </c>
       <c r="Q17">
-        <v>10.46403806560471</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>10.38339794501829</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.59036105907046</v>
+        <v>28.59986015234736</v>
       </c>
       <c r="C18">
-        <v>16.71216319684481</v>
+        <v>16.70143657951363</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>9.809107365007872</v>
+        <v>9.726727502533731</v>
       </c>
       <c r="F18">
-        <v>21.76463218231298</v>
+        <v>21.57723096115368</v>
       </c>
       <c r="G18">
-        <v>14.94046867540886</v>
+        <v>14.09014087131612</v>
       </c>
       <c r="H18">
-        <v>4.462801219209505</v>
+        <v>4.458508756041703</v>
       </c>
       <c r="I18">
-        <v>2.814493878412234</v>
+        <v>2.843406805891296</v>
       </c>
       <c r="J18">
-        <v>7.201728539947857</v>
+        <v>7.757010503401294</v>
       </c>
       <c r="K18">
-        <v>11.19804430671672</v>
+        <v>11.08021064229317</v>
       </c>
       <c r="L18">
-        <v>6.370454456806312</v>
+        <v>9.800654820969022</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>6.522077824154181</v>
       </c>
       <c r="N18">
-        <v>9.470821068833773</v>
+        <v>6.390977850998516</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>9.541192783613074</v>
       </c>
       <c r="Q18">
-        <v>10.8417298979474</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>10.74047095687947</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.47956060852751</v>
+        <v>28.48883910058479</v>
       </c>
       <c r="C19">
-        <v>16.17181006896388</v>
+        <v>16.21928300613335</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>10.38037789055615</v>
+        <v>10.29070217914602</v>
       </c>
       <c r="F19">
-        <v>23.08066691947181</v>
+        <v>22.83304680549876</v>
       </c>
       <c r="G19">
-        <v>16.061911560334</v>
+        <v>15.09700281390491</v>
       </c>
       <c r="H19">
-        <v>2.960911030312389</v>
+        <v>2.967337903475357</v>
       </c>
       <c r="I19">
-        <v>2.827337277522027</v>
+        <v>2.856093219294185</v>
       </c>
       <c r="J19">
-        <v>7.371870639994202</v>
+        <v>7.911467640489822</v>
       </c>
       <c r="K19">
-        <v>11.42401088986189</v>
+        <v>11.26703093123858</v>
       </c>
       <c r="L19">
-        <v>6.136180102467368</v>
+        <v>9.929694414379359</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>6.684751378629729</v>
       </c>
       <c r="N19">
-        <v>10.17332182690212</v>
+        <v>6.161382100220259</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>10.26144704025639</v>
       </c>
       <c r="Q19">
-        <v>11.28470278553741</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>11.13844422000846</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.03265631989808</v>
+        <v>29.03782782015946</v>
       </c>
       <c r="C20">
-        <v>15.64264817061897</v>
+        <v>15.78174560765985</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>11.49061012058922</v>
+        <v>11.38978670948476</v>
       </c>
       <c r="F20">
-        <v>25.28691491564837</v>
+        <v>24.89398876571484</v>
       </c>
       <c r="G20">
-        <v>17.8608271801515</v>
+        <v>16.98910839888939</v>
       </c>
       <c r="H20">
-        <v>1.866172237347717</v>
+        <v>1.869882651083661</v>
       </c>
       <c r="I20">
-        <v>2.923554409524836</v>
+        <v>2.942235246871735</v>
       </c>
       <c r="J20">
-        <v>7.600686670242214</v>
+        <v>8.01342800322049</v>
       </c>
       <c r="K20">
-        <v>11.70404874908562</v>
+        <v>11.46223558927961</v>
       </c>
       <c r="L20">
-        <v>5.886310316735063</v>
+        <v>10.06886434712957</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>6.889607282551585</v>
       </c>
       <c r="N20">
-        <v>11.402932885431</v>
+        <v>5.924771045432613</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>11.52572973553391</v>
       </c>
       <c r="Q20">
-        <v>11.94385502845348</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>11.68071898292103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.76888495079552</v>
+        <v>30.76336511993426</v>
       </c>
       <c r="C21">
-        <v>16.17028753934676</v>
+        <v>16.28487088098045</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>11.80010590015579</v>
+        <v>11.73860723287373</v>
       </c>
       <c r="F21">
-        <v>26.12667974043716</v>
+        <v>25.46644812209045</v>
       </c>
       <c r="G21">
-        <v>18.39366651459975</v>
+        <v>19.22308508556559</v>
       </c>
       <c r="H21">
-        <v>2.123196786602897</v>
+        <v>2.106508734711386</v>
       </c>
       <c r="I21">
-        <v>3.11047254691892</v>
+        <v>3.1034567641749</v>
       </c>
       <c r="J21">
-        <v>7.555111271172348</v>
+        <v>7.385808704894313</v>
       </c>
       <c r="K21">
-        <v>11.42405069880012</v>
+        <v>11.08447802586922</v>
       </c>
       <c r="L21">
-        <v>5.998143546094456</v>
+        <v>9.814342091491927</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>6.68165705489402</v>
       </c>
       <c r="N21">
-        <v>11.98018997930346</v>
+        <v>6.077239109730892</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>12.1420831197046</v>
       </c>
       <c r="Q21">
-        <v>11.99518275675718</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>11.47048420932268</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.85228641055199</v>
+        <v>31.83988963538395</v>
       </c>
       <c r="C22">
-        <v>16.51301705112077</v>
+        <v>16.60177620619462</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>11.94932557860929</v>
+        <v>11.9193130243553</v>
       </c>
       <c r="F22">
-        <v>26.60643617083279</v>
+        <v>25.76526138605356</v>
       </c>
       <c r="G22">
-        <v>18.72409060863684</v>
+        <v>20.77715963498148</v>
       </c>
       <c r="H22">
-        <v>2.284092803130551</v>
+        <v>2.254556384720198</v>
       </c>
       <c r="I22">
-        <v>3.224717144743734</v>
+        <v>3.20021704337812</v>
       </c>
       <c r="J22">
-        <v>7.524806304361356</v>
+        <v>7.036721845809526</v>
       </c>
       <c r="K22">
-        <v>11.24055023940237</v>
+        <v>10.83093798347523</v>
       </c>
       <c r="L22">
-        <v>6.079180416553786</v>
+        <v>9.654028109816567</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>6.550334461291624</v>
       </c>
       <c r="N22">
-        <v>12.28862636068036</v>
+        <v>6.186230252233513</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>12.47598626148844</v>
       </c>
       <c r="Q22">
-        <v>12.02603398106527</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>11.31503252889771</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.27900322695135</v>
+        <v>31.27055606265979</v>
       </c>
       <c r="C23">
-        <v>16.30573022603095</v>
+        <v>16.42096509267051</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>11.8737129535039</v>
+        <v>11.82024001699776</v>
       </c>
       <c r="F23">
-        <v>26.37511174870009</v>
+        <v>25.65257350901155</v>
       </c>
       <c r="G23">
-        <v>18.59032368700005</v>
+        <v>19.79343604443248</v>
       </c>
       <c r="H23">
-        <v>2.199082150734949</v>
+        <v>2.176964007179395</v>
       </c>
       <c r="I23">
-        <v>3.159726166295706</v>
+        <v>3.143845480745633</v>
       </c>
       <c r="J23">
-        <v>7.547807092955066</v>
+        <v>7.265124308144164</v>
       </c>
       <c r="K23">
-        <v>11.35182704661259</v>
+        <v>10.98698699751302</v>
       </c>
       <c r="L23">
-        <v>6.033260636664661</v>
+        <v>9.74973326937136</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>6.641625058708104</v>
       </c>
       <c r="N23">
-        <v>12.11776855554819</v>
+        <v>6.122356571645449</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>12.28859265496941</v>
       </c>
       <c r="Q23">
-        <v>12.02711466340643</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>11.43956253096192</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.00529779700274</v>
+        <v>29.01049480425175</v>
       </c>
       <c r="C24">
-        <v>15.54215385493943</v>
+        <v>15.68564164452917</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>11.577616934326</v>
+        <v>11.47545118901718</v>
       </c>
       <c r="F24">
-        <v>25.4639974311101</v>
+        <v>25.06518919099438</v>
       </c>
       <c r="G24">
-        <v>18.04989804782002</v>
+        <v>17.15493913835528</v>
       </c>
       <c r="H24">
-        <v>1.869460023583599</v>
+        <v>1.873211408003764</v>
       </c>
       <c r="I24">
-        <v>2.916391744736102</v>
+        <v>2.932956630999399</v>
       </c>
       <c r="J24">
-        <v>7.632024221192883</v>
+        <v>8.045066474319547</v>
       </c>
       <c r="K24">
-        <v>11.76185644008541</v>
+        <v>11.51212451555573</v>
       </c>
       <c r="L24">
-        <v>5.860076251710962</v>
+        <v>10.10254452301138</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>6.933425236266298</v>
       </c>
       <c r="N24">
-        <v>11.4623250402861</v>
+        <v>5.898107981835525</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>11.5870455593899</v>
       </c>
       <c r="Q24">
-        <v>12.02308715480898</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>11.75502603051558</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.33271645117226</v>
+        <v>26.34907351996121</v>
       </c>
       <c r="C25">
-        <v>14.67945572132655</v>
+        <v>14.69894362456383</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>11.25159118160035</v>
+        <v>11.16651577424371</v>
       </c>
       <c r="F25">
-        <v>24.49632900307481</v>
+        <v>24.19531130359885</v>
       </c>
       <c r="G25">
-        <v>17.54639232297811</v>
+        <v>16.54871068375716</v>
       </c>
       <c r="H25">
-        <v>1.623891916679045</v>
+        <v>1.598755023243029</v>
       </c>
       <c r="I25">
-        <v>2.646784121031621</v>
+        <v>2.691004305295978</v>
       </c>
       <c r="J25">
-        <v>7.740595449480048</v>
+        <v>8.192716860051831</v>
       </c>
       <c r="K25">
-        <v>12.2273947506637</v>
+        <v>11.98906172114806</v>
       </c>
       <c r="L25">
-        <v>5.665222627505029</v>
+        <v>10.45294834778643</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>7.220826192411865</v>
       </c>
       <c r="N25">
-        <v>10.71488019577704</v>
+        <v>5.679315163118557</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>10.82370982323675</v>
       </c>
       <c r="Q25">
-        <v>12.06253098424743</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>11.85977920709808</v>
       </c>
     </row>
   </sheetData>
